--- a/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
+++ b/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/jrb83_calvin_edu/Documents/Summer 2021 Research/Ecological Footprint vs HDI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MCBook2021\chapters\ch02-Boundaries\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:40009_{4F760591-11C8-47E6-97E3-9C39B4551D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48056AE9-7B70-4353-A6F2-8D4809AA4676}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9447FCF9-E8AD-4F5C-B5AA-6ACC01269C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="296">
   <si>
     <t>Country Name</t>
   </si>
@@ -927,6 +927,27 @@
   </si>
   <si>
     <t>Ecological_Footprint_gha/person</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>North America</t>
   </si>
 </sst>
 </file>
@@ -1468,6 +1489,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,10 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4052,16 +4073,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603314</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>417534</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26096</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>525549</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4386,10 +4407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D9207-0930-4D6D-87FA-8D2C98238D07}">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,7 +4421,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B175">'Footprint Network'!A2:B176</f>
         <v>Country Name</v>
@@ -4416,8 +4437,11 @@
         <f t="array" ref="D1:D4">'IDB (country pop)'!C2:C5</f>
         <v>Population</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <v>Afghanistan</v>
       </c>
@@ -4430,8 +4454,11 @@
       <c r="D2">
         <v>34097944</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>Albania</v>
       </c>
@@ -4444,8 +4471,11 @@
       <c r="D3">
         <v>3055278</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Algeria</v>
       </c>
@@ -4458,8 +4488,11 @@
       <c r="D4">
         <v>40952312</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Angola</v>
       </c>
@@ -4473,8 +4506,11 @@
         <f>'IDB (country pop)'!C8</f>
         <v>29310737</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Antigua and Barbuda</v>
       </c>
@@ -4488,8 +4524,11 @@
         <f t="array" ref="D6:D8">'IDB (country pop)'!C10:C12</f>
         <v>94537</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Argentina</v>
       </c>
@@ -4502,8 +4541,11 @@
       <c r="D7">
         <v>44292731</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>Armenia</v>
       </c>
@@ -4516,8 +4558,11 @@
       <c r="D8">
         <v>3045086</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Australia</v>
       </c>
@@ -4531,8 +4576,11 @@
         <f t="array" ref="D9:D19">'IDB (country pop)'!C14:C24</f>
         <v>24370179</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Austria</v>
       </c>
@@ -4545,8 +4593,11 @@
       <c r="D10">
         <v>8752360</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Azerbaijan</v>
       </c>
@@ -4559,8 +4610,11 @@
       <c r="D11">
         <v>9961850</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Bahamas</v>
       </c>
@@ -4573,8 +4627,11 @@
       <c r="D12">
         <v>340519</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Bahrain</v>
       </c>
@@ -4587,8 +4644,11 @@
       <c r="D13">
         <v>1410746</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Bangladesh</v>
       </c>
@@ -4601,8 +4661,11 @@
       <c r="D14">
         <v>157720078</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Barbados</v>
       </c>
@@ -4615,8 +4678,11 @@
       <c r="D15">
         <v>298086</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Belarus</v>
       </c>
@@ -4629,8 +4695,11 @@
       <c r="D16">
         <v>9541820</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Belgium</v>
       </c>
@@ -4643,8 +4712,11 @@
       <c r="D17">
         <v>11482059</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Belize</v>
       </c>
@@ -4657,8 +4729,11 @@
       <c r="D18">
         <v>378270</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Benin</v>
       </c>
@@ -4671,8 +4746,11 @@
       <c r="D19">
         <v>11612447</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Bhutan</v>
       </c>
@@ -4686,8 +4764,11 @@
         <f t="array" ref="D20:D28">'IDB (country pop)'!C26:C34</f>
         <v>822754</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Bolivarian Republic of Venezuela</v>
       </c>
@@ -4700,8 +4781,11 @@
       <c r="D21">
         <v>30650761</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>Bolivia</v>
       </c>
@@ -4714,8 +4798,11 @@
       <c r="D22">
         <v>11101210</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
@@ -4728,8 +4815,11 @@
       <c r="D23">
         <v>3853839</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>Botswana</v>
       </c>
@@ -4742,8 +4832,11 @@
       <c r="D24">
         <v>2214659</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>Brazil</v>
       </c>
@@ -4756,8 +4849,11 @@
       <c r="D25">
         <v>207618016</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>Brunei Darussalam</v>
       </c>
@@ -4770,8 +4866,11 @@
       <c r="D26">
         <v>443198</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>Bulgaria</v>
       </c>
@@ -4784,8 +4883,11 @@
       <c r="D27">
         <v>7100884</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>Burkina Faso</v>
       </c>
@@ -4798,8 +4900,11 @@
       <c r="D28">
         <v>19198909</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>Burundi</v>
       </c>
@@ -4813,8 +4918,11 @@
         <f t="array" ref="D29:D34">'IDB (country pop)'!C36:C41</f>
         <v>10951667</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>CÃ´te d'Ivoire</v>
       </c>
@@ -4827,8 +4935,11 @@
       <c r="D30">
         <v>25652685</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>Cabo Verde</v>
       </c>
@@ -4841,8 +4952,11 @@
       <c r="D31">
         <v>560017</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>Cambodia</v>
       </c>
@@ -4855,8 +4969,11 @@
       <c r="D32">
         <v>16343705</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Cameroon</v>
       </c>
@@ -4869,8 +4986,11 @@
       <c r="D33">
         <v>25555473</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>Canada</v>
       </c>
@@ -4883,8 +5003,11 @@
       <c r="D34">
         <v>36731939</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>Central African Republic</v>
       </c>
@@ -4898,8 +5021,11 @@
         <f t="array" ref="D35:D41">'IDB (country pop)'!C43:C49</f>
         <v>5041175</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>Chad</v>
       </c>
@@ -4912,8 +5038,11 @@
       <c r="D36">
         <v>15326202</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>Chile</v>
       </c>
@@ -4926,8 +5055,11 @@
       <c r="D37">
         <v>17786791</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>China</v>
       </c>
@@ -4940,8 +5072,11 @@
       <c r="D38">
         <v>1379302771</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>Colombia</v>
       </c>
@@ -4954,8 +5089,11 @@
       <c r="D39">
         <v>48200827</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>Comoros</v>
       </c>
@@ -4968,8 +5106,11 @@
       <c r="D40">
         <v>813477</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Congo</v>
       </c>
@@ -4982,8 +5123,11 @@
       <c r="D41">
         <v>4954490</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>Costa Rica</v>
       </c>
@@ -4997,8 +5141,11 @@
         <f t="array" ref="D42:D44">'IDB (country pop)'!C51:C53</f>
         <v>4928413</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>Croatia</v>
       </c>
@@ -5011,8 +5158,11 @@
       <c r="D43">
         <v>4292667</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>Cuba</v>
       </c>
@@ -5025,8 +5175,11 @@
       <c r="D44">
         <v>11147117</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>Cyprus</v>
       </c>
@@ -5040,8 +5193,11 @@
         <f t="array" ref="D45:D59">'IDB (country pop)'!C55:C69</f>
         <v>1221929</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>Czech Republic</v>
       </c>
@@ -5054,8 +5210,11 @@
       <c r="D46">
         <v>10671766</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>Democratic Republic of Congo</v>
       </c>
@@ -5068,8 +5227,11 @@
       <c r="D47">
         <v>92453955</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>Denmark</v>
       </c>
@@ -5082,8 +5244,11 @@
       <c r="D48">
         <v>5773404</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>Djibouti</v>
       </c>
@@ -5096,8 +5261,11 @@
       <c r="D49">
         <v>863611</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>Dominica</v>
       </c>
@@ -5110,8 +5278,11 @@
       <c r="D50">
         <v>74228</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>Dominican Republic</v>
       </c>
@@ -5124,8 +5295,11 @@
       <c r="D51">
         <v>10195531</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>Ecuador</v>
       </c>
@@ -5138,8 +5312,11 @@
       <c r="D52">
         <v>16281498</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>Egypt</v>
       </c>
@@ -5152,8 +5329,11 @@
       <c r="D53">
         <v>97037296</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>El Salvador</v>
       </c>
@@ -5166,8 +5346,11 @@
       <c r="D54">
         <v>6303924</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>Equatorial Guinea</v>
       </c>
@@ -5180,8 +5363,11 @@
       <c r="D55">
         <v>779607</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>Eritrea</v>
       </c>
@@ -5194,8 +5380,11 @@
       <c r="D56">
         <v>5926231</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>Estonia</v>
       </c>
@@ -5208,8 +5397,11 @@
       <c r="D57">
         <v>1251222</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>Eswatini</v>
       </c>
@@ -5222,8 +5414,11 @@
       <c r="D58">
         <v>1077731</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>Ethiopia</v>
       </c>
@@ -5236,8 +5431,11 @@
       <c r="D59">
         <v>99963283</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <v>Fiji</v>
       </c>
@@ -5251,8 +5449,11 @@
         <f t="array" ref="D60:D62">'IDB (country pop)'!C71:C73</f>
         <v>920176</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <v>Finland</v>
       </c>
@@ -5265,8 +5466,11 @@
       <c r="D61">
         <v>5519372</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <v>France</v>
       </c>
@@ -5279,8 +5483,11 @@
       <c r="D62">
         <v>67126156</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <v>Gabon</v>
       </c>
@@ -5294,8 +5501,11 @@
         <f t="array" ref="D63:D64">'IDB (country pop)'!C75:C76</f>
         <v>2060138</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <v>Gambia</v>
       </c>
@@ -5308,8 +5518,11 @@
       <c r="D64">
         <v>2056778</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <v>Georgia</v>
       </c>
@@ -5323,8 +5536,11 @@
         <f t="array" ref="D65:D67">'IDB (country pop)'!C78:C80</f>
         <v>4926448</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <v>Germany</v>
       </c>
@@ -5337,8 +5553,11 @@
       <c r="D66">
         <v>80527161</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <v>Ghana</v>
       </c>
@@ -5351,8 +5570,11 @@
       <c r="D67">
         <v>29479431</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <v>Greece</v>
       </c>
@@ -5366,8 +5588,11 @@
         <f>'IDB (country pop)'!C82</f>
         <v>10698002</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <v>Grenada</v>
       </c>
@@ -5381,8 +5606,11 @@
         <f>'IDB (country pop)'!C84</f>
         <v>111800</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <v>Guatemala</v>
       </c>
@@ -5396,8 +5624,11 @@
         <f>'IDB (country pop)'!C86</f>
         <v>16289862</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <v>Guinea</v>
       </c>
@@ -5411,8 +5642,11 @@
         <f t="array" ref="D71:D75">'IDB (country pop)'!C88:C92</f>
         <v>11534259</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <v>Guinea-Bissau</v>
       </c>
@@ -5425,8 +5659,11 @@
       <c r="D72">
         <v>1788559</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <v>Guyana</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="D73">
         <v>784722</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <v>Haiti</v>
       </c>
@@ -5453,8 +5693,11 @@
       <c r="D74">
         <v>10643145</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <v>Honduras</v>
       </c>
@@ -5467,8 +5710,11 @@
       <c r="D75">
         <v>8876162</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <v>Hungary</v>
       </c>
@@ -5482,8 +5728,11 @@
         <f>'IDB (country pop)'!C94</f>
         <v>9835682</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <v>India</v>
       </c>
@@ -5497,8 +5746,11 @@
         <f t="array" ref="D77:D81">'IDB (country pop)'!C96:C100</f>
         <v>1281971225</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <v>Indonesia</v>
       </c>
@@ -5511,8 +5763,11 @@
       <c r="D78">
         <v>265708968</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <v>Iraq</v>
       </c>
@@ -5525,8 +5780,11 @@
       <c r="D79">
         <v>36345459</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <v>Ireland</v>
       </c>
@@ -5539,8 +5797,11 @@
       <c r="D80">
         <v>5009156</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <v>Islamic Republic of Iran</v>
       </c>
@@ -5553,8 +5814,11 @@
       <c r="D81">
         <v>82046494</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <v>Israel</v>
       </c>
@@ -5568,8 +5832,11 @@
         <f t="array" ref="D82:D85">'IDB (country pop)'!C102:C105</f>
         <v>8280728</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <v>Italy</v>
       </c>
@@ -5582,8 +5849,11 @@
       <c r="D83">
         <v>62083001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <v>Jamaica</v>
       </c>
@@ -5596,8 +5866,11 @@
       <c r="D84">
         <v>2813518</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <v>Japan</v>
       </c>
@@ -5610,8 +5883,11 @@
       <c r="D85">
         <v>126215286</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <v>Jordan</v>
       </c>
@@ -5625,8 +5901,11 @@
         <f t="array" ref="D86:D88">'IDB (country pop)'!C107:C109</f>
         <v>10247507</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <v>Kazakhstan</v>
       </c>
@@ -5639,8 +5918,11 @@
       <c r="D87">
         <v>18549665</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <v>Kenya</v>
       </c>
@@ -5653,8 +5935,11 @@
       <c r="D88">
         <v>50035005</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <v>Kuwait</v>
       </c>
@@ -5668,8 +5953,11 @@
         <f t="array" ref="D89:D96">'IDB (country pop)'!C113:C120</f>
         <v>2876506</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <v>Kyrgyzstan</v>
       </c>
@@ -5682,8 +5970,11 @@
       <c r="D90">
         <v>5788175</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <v>Lao People's Democratic Republic</v>
       </c>
@@ -5696,8 +5987,11 @@
       <c r="D91">
         <v>7131518</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <v>Latvia</v>
       </c>
@@ -5710,8 +6004,11 @@
       <c r="D92">
         <v>1945078</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <v>Lebanon</v>
       </c>
@@ -5724,8 +6021,11 @@
       <c r="D93">
         <v>6223873</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <v>Lesotho</v>
       </c>
@@ -5738,8 +6038,11 @@
       <c r="D94">
         <v>2114641</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <v>Liberia</v>
       </c>
@@ -5752,8 +6055,11 @@
       <c r="D95">
         <v>4688786</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <v>Libyan Arab Jamahiriya</v>
       </c>
@@ -5766,8 +6072,11 @@
       <c r="D96">
         <v>6483076</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <v>Lithuania</v>
       </c>
@@ -5781,8 +6090,11 @@
         <f t="array" ref="D97:D98">'IDB (country pop)'!C122:C123</f>
         <v>2825940</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <v>Luxembourg</v>
       </c>
@@ -5795,8 +6107,11 @@
       <c r="D98">
         <v>594319</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <v>Madagascar</v>
       </c>
@@ -5810,8 +6125,11 @@
         <f t="array" ref="D99:D101">'IDB (country pop)'!C125:C127</f>
         <v>25009416</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <v>Malawi</v>
       </c>
@@ -5824,8 +6142,11 @@
       <c r="D100">
         <v>18365567</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <v>Malaysia</v>
       </c>
@@ -5838,8 +6159,11 @@
       <c r="D101">
         <v>32040544</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <v>Mali</v>
       </c>
@@ -5853,8 +6177,11 @@
         <f t="array" ref="D102:D103">'IDB (country pop)'!C129:C130</f>
         <v>17885069</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <v>Malta</v>
       </c>
@@ -5867,8 +6194,11 @@
       <c r="D103">
         <v>444458</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <v>Mauritania</v>
       </c>
@@ -5882,8 +6212,11 @@
         <f t="array" ref="D104:D106">'IDB (country pop)'!C132:C134</f>
         <v>3752599</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <v>Mauritius</v>
       </c>
@@ -5896,8 +6229,11 @@
       <c r="D105">
         <v>1355418</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <v>Mexico</v>
       </c>
@@ -5910,8 +6246,11 @@
       <c r="D106">
         <v>124632667</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <v>Mongolia</v>
       </c>
@@ -5925,8 +6264,11 @@
         <f t="array" ref="D107:D108">'IDB (country pop)'!C137:C138</f>
         <v>3067699</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <v>Montenegro</v>
       </c>
@@ -5939,8 +6281,11 @@
       <c r="D108">
         <v>616284</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <v>Morocco</v>
       </c>
@@ -5954,8 +6299,11 @@
         <f t="array" ref="D109:D110">'IDB (country pop)'!C140:C141</f>
         <v>34510211</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <v>Mozambique</v>
       </c>
@@ -5968,8 +6316,11 @@
       <c r="D110">
         <v>27809390</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <v>Namibia</v>
       </c>
@@ -5983,8 +6334,11 @@
         <f>'IDB (country pop)'!C143</f>
         <v>2484586</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <v>Nepal</v>
       </c>
@@ -5998,8 +6352,11 @@
         <f t="array" ref="D112:D113">'IDB (country pop)'!C145:C146</f>
         <v>29313646</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <v>Netherlands</v>
       </c>
@@ -6012,8 +6369,11 @@
       <c r="D113">
         <v>17079084</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <v>New Zealand</v>
       </c>
@@ -6027,8 +6387,11 @@
         <f t="array" ref="D114:D117">'IDB (country pop)'!C148:C151</f>
         <v>4700525</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <v>Nicaragua</v>
       </c>
@@ -6041,8 +6404,11 @@
       <c r="D115">
         <v>6011584</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <v>Niger</v>
       </c>
@@ -6055,8 +6421,11 @@
       <c r="D116">
         <v>20388375</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <v>Nigeria</v>
       </c>
@@ -6069,8 +6438,11 @@
       <c r="D117">
         <v>198312085</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <v>Norway</v>
       </c>
@@ -6084,8 +6456,11 @@
         <f t="array" ref="D118:D120">'IDB (country pop)'!C153:C155</f>
         <v>5318850</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <v>Oman</v>
       </c>
@@ -6098,8 +6473,11 @@
       <c r="D119">
         <v>3415807</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <v>Pakistan</v>
       </c>
@@ -6112,8 +6490,11 @@
       <c r="D120">
         <v>219176700</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <v>Panama</v>
       </c>
@@ -6127,8 +6508,11 @@
         <f t="array" ref="D121:D127">'IDB (country pop)'!C157:C163</f>
         <v>3743955</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <v>Papua New Guinea</v>
       </c>
@@ -6141,8 +6525,11 @@
       <c r="D122">
         <v>6919792</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <v>Paraguay</v>
       </c>
@@ -6155,8 +6542,11 @@
       <c r="D123">
         <v>6940221</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <v>Peru</v>
       </c>
@@ -6169,8 +6559,11 @@
       <c r="D124">
         <v>31038222</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <v>Philippines</v>
       </c>
@@ -6183,8 +6576,11 @@
       <c r="D125">
         <v>104247132</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <v>Poland</v>
       </c>
@@ -6197,8 +6593,11 @@
       <c r="D126">
         <v>38469803</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <v>Portugal</v>
       </c>
@@ -6211,8 +6610,11 @@
       <c r="D127">
         <v>10370571</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <v>Qatar</v>
       </c>
@@ -6226,8 +6628,11 @@
         <f t="array" ref="D128:D134">'IDB (country pop)'!C165:C171</f>
         <v>2316205</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <v>Republic of Korea</v>
       </c>
@@ -6240,8 +6645,11 @@
       <c r="D129">
         <v>51134612</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <v>Republic of Moldova</v>
       </c>
@@ -6254,8 +6662,11 @@
       <c r="D130">
         <v>3469042</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <v>Republic of North Macedonia</v>
       </c>
@@ -6268,8 +6679,11 @@
       <c r="D131">
         <v>2114687</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <v>Romania</v>
       </c>
@@ -6282,8 +6696,11 @@
       <c r="D132">
         <v>21536726</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <v>Russian Federation</v>
       </c>
@@ -6296,8 +6713,11 @@
       <c r="D133">
         <v>143150610</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <v>Rwanda</v>
       </c>
@@ -6310,8 +6730,11 @@
       <c r="D134">
         <v>11899254</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <v>Saint Lucia</v>
       </c>
@@ -6325,8 +6748,11 @@
         <f>'IDB (country pop)'!C175</f>
         <v>164584</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <v>Saint Vincent and Grenadines</v>
       </c>
@@ -6340,8 +6766,11 @@
         <f t="array" ref="D136:D137">'IDB (country pop)'!C178:C179</f>
         <v>101985</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <v>Samoa</v>
       </c>
@@ -6354,8 +6783,11 @@
       <c r="D137">
         <v>200056</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <v>Sao Tome and Principe</v>
       </c>
@@ -6369,8 +6801,11 @@
         <f t="array" ref="D138:D141">'IDB (country pop)'!C181:C184</f>
         <v>200744</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <v>Saudi Arabia</v>
       </c>
@@ -6383,8 +6818,11 @@
       <c r="D139">
         <v>32567388</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <v>Senegal</v>
       </c>
@@ -6397,8 +6835,11 @@
       <c r="D140">
         <v>14660011</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <v>Serbia</v>
       </c>
@@ -6411,8 +6852,11 @@
       <c r="D141">
         <v>7108516</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <v>Sierra Leone</v>
       </c>
@@ -6426,8 +6870,11 @@
         <f t="array" ref="D142:D143">'IDB (country pop)'!C186:C187</f>
         <v>6183278</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <v>Singapore</v>
       </c>
@@ -6440,8 +6887,11 @@
       <c r="D143">
         <v>5637272</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <v>Slovakia</v>
       </c>
@@ -6455,8 +6905,11 @@
         <f t="array" ref="D144:D146">'IDB (country pop)'!C189:C191</f>
         <v>5445176</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <v>Slovenia</v>
       </c>
@@ -6469,8 +6922,11 @@
       <c r="D145">
         <v>2101369</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <v>Solomon Islands</v>
       </c>
@@ -6483,8 +6939,11 @@
       <c r="D146">
         <v>641944</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <v>South Africa</v>
       </c>
@@ -6498,8 +6957,11 @@
         <f>'IDB (country pop)'!C193</f>
         <v>54821014</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <v>Spain</v>
       </c>
@@ -6513,8 +6975,11 @@
         <f t="array" ref="D148:D149">'IDB (country pop)'!C195:C196</f>
         <v>47232034</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <v>Sri Lanka</v>
       </c>
@@ -6527,8 +6992,11 @@
       <c r="D149">
         <v>22410749</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <v>Sudan</v>
       </c>
@@ -6542,8 +7010,11 @@
         <f t="array" ref="D150:D154">'IDB (country pop)'!C198:C202</f>
         <v>41818056</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <v>Suriname</v>
       </c>
@@ -6556,8 +7027,11 @@
       <c r="D151">
         <v>591380</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <v>Sweden</v>
       </c>
@@ -6570,8 +7044,11 @@
       <c r="D152">
         <v>9953746</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <v>Switzerland</v>
       </c>
@@ -6584,8 +7061,11 @@
       <c r="D153">
         <v>8231519</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <v>Syrian Arab Republic</v>
       </c>
@@ -6598,8 +7078,11 @@
       <c r="D154">
         <v>17463180</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <v>Tajikistan</v>
       </c>
@@ -6613,8 +7096,11 @@
         <f t="array" ref="D155:D163">'IDB (country pop)'!C204:C212</f>
         <v>8458972</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <v>Thailand</v>
       </c>
@@ -6627,8 +7113,11 @@
       <c r="D156">
         <v>68607190</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <v>Timor-Leste</v>
       </c>
@@ -6641,8 +7130,11 @@
       <c r="D157">
         <v>1290927</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <v>Togo</v>
       </c>
@@ -6655,8 +7147,11 @@
       <c r="D158">
         <v>7471768</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <v>Tonga</v>
       </c>
@@ -6669,8 +7164,11 @@
       <c r="D159">
         <v>106428</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <v>Trinidad and Tobago</v>
       </c>
@@ -6683,8 +7181,11 @@
       <c r="D160">
         <v>1231013</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <v>Tunisia</v>
       </c>
@@ -6697,8 +7198,11 @@
       <c r="D161">
         <v>11403062</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <v>Turkey</v>
       </c>
@@ -6711,8 +7215,11 @@
       <c r="D162">
         <v>80808069</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <v>Turkmenistan</v>
       </c>
@@ -6725,8 +7232,11 @@
       <c r="D163">
         <v>5346603</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <v>Uganda</v>
       </c>
@@ -6740,8 +7250,11 @@
         <f t="array" ref="D164:D169">'IDB (country pop)'!C215:C220</f>
         <v>39184992</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <v>Ukraine</v>
       </c>
@@ -6754,8 +7267,11 @@
       <c r="D165">
         <v>44029189</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <v>United Arab Emirates</v>
       </c>
@@ -6768,8 +7284,11 @@
       <c r="D166">
         <v>9543192</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <v>United Kingdom</v>
       </c>
@@ -6782,8 +7301,11 @@
       <c r="D167">
         <v>64739016</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <v>United Rpublic of Tanzania</v>
       </c>
@@ -6796,8 +7318,11 @@
       <c r="D168">
         <v>55303380</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <v>United States of America</v>
       </c>
@@ -6810,8 +7335,11 @@
       <c r="D169">
         <v>324985539</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <v>Uzbekistan</v>
       </c>
@@ -6825,8 +7353,11 @@
         <f>'IDB (country pop)'!C222</f>
         <v>29755821</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <v>Viet Nam</v>
       </c>
@@ -6840,8 +7371,11 @@
         <f>'IDB (country pop)'!C224</f>
         <v>98482273</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <v>World</v>
       </c>
@@ -6855,8 +7389,11 @@
         <f>'UN World Population Data'!B70</f>
         <v>7547859000</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <v>Yemen</v>
       </c>
@@ -6870,8 +7407,11 @@
         <f t="array" ref="D173:D175">'IDB (country pop)'!C230:C232</f>
         <v>27984859</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <v>Zambia</v>
       </c>
@@ -6884,8 +7424,11 @@
       <c r="D174">
         <v>16920529</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <v>Zimbabwe</v>
       </c>
@@ -6897,6 +7440,9 @@
       </c>
       <c r="D175">
         <v>13805081</v>
+      </c>
+      <c r="E175" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6923,15 +7469,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8923,14 +9469,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -10394,21 +10940,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="L1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10438,7 +10984,7 @@
       <c r="I2" t="s">
         <v>203</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>272</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -10446,7 +10992,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -10473,13 +11019,13 @@
       <c r="I3">
         <v>168.71</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4">
@@ -10514,7 +11060,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -10544,7 +11090,7 @@
       <c r="L5" t="s">
         <v>181</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="5" t="s">
         <v>273</v>
       </c>
     </row>
@@ -10613,7 +11159,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -10680,7 +11226,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -10709,7 +11255,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -10738,7 +11284,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B12">
@@ -10796,7 +11342,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B14">
@@ -10825,7 +11371,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B15">
@@ -10854,7 +11400,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B16">
@@ -10883,7 +11429,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B17">
@@ -10912,7 +11458,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18">
@@ -10941,7 +11487,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -10970,7 +11516,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B20">
@@ -10999,7 +11545,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B21">
@@ -11028,7 +11574,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B22">
@@ -11057,7 +11603,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B23">
@@ -11086,7 +11632,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B24">
@@ -11144,7 +11690,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B26">
@@ -11173,7 +11719,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B27">
@@ -11202,7 +11748,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B28">
@@ -11231,7 +11777,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B29">
@@ -11260,7 +11806,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B30">
@@ -11289,7 +11835,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B31">
@@ -11318,7 +11864,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B32">
@@ -11347,7 +11893,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B33">
@@ -11376,7 +11922,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B34">
@@ -11405,7 +11951,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B35">
@@ -11434,7 +11980,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B36">
@@ -11463,7 +12009,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B37">
@@ -11492,7 +12038,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B38">
@@ -11521,7 +12067,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B39">
@@ -11550,7 +12096,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B40">
@@ -11579,7 +12125,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B41">
@@ -11637,7 +12183,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B43">
@@ -11666,7 +12212,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B44">
@@ -11695,7 +12241,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B45">
@@ -11724,7 +12270,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B46">
@@ -11753,7 +12299,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B47">
@@ -11782,7 +12328,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B48">
@@ -11811,7 +12357,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B49">
@@ -11869,7 +12415,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B51">
@@ -11898,7 +12444,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B52">
@@ -11927,7 +12473,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B53">
@@ -11985,7 +12531,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B55">
@@ -12014,7 +12560,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B56">
@@ -12043,7 +12589,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B57">
@@ -12072,7 +12618,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B58">
@@ -12101,7 +12647,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B59">
@@ -12130,7 +12676,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B60">
@@ -12159,7 +12705,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B61">
@@ -12188,7 +12734,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B62">
@@ -12217,7 +12763,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B63">
@@ -12246,7 +12792,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B64">
@@ -12275,7 +12821,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B65">
@@ -12304,7 +12850,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B66">
@@ -12333,7 +12879,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B67">
@@ -12362,7 +12908,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B68">
@@ -12391,7 +12937,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B69">
@@ -12449,7 +12995,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B71">
@@ -12478,7 +13024,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B72">
@@ -12507,7 +13053,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B73">
@@ -12565,7 +13111,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B75">
@@ -12594,7 +13140,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B76">
@@ -12652,7 +13198,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B78">
@@ -12681,7 +13227,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B79">
@@ -12710,7 +13256,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B80">
@@ -12768,7 +13314,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B82">
@@ -12826,7 +13372,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B84">
@@ -12884,7 +13430,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B86">
@@ -12942,7 +13488,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B88">
@@ -12971,7 +13517,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B89">
@@ -13000,7 +13546,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B90">
@@ -13029,7 +13575,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B91">
@@ -13058,7 +13604,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B92">
@@ -13116,7 +13662,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B94">
@@ -13174,7 +13720,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B96">
@@ -13203,7 +13749,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B97">
@@ -13232,7 +13778,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B98">
@@ -13261,7 +13807,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B99">
@@ -13290,7 +13836,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B100">
@@ -13348,7 +13894,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B102">
@@ -13377,7 +13923,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B103">
@@ -13406,7 +13952,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B104">
@@ -13435,7 +13981,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B105">
@@ -13493,7 +14039,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B107">
@@ -13522,7 +14068,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B108">
@@ -13551,7 +14097,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B109">
@@ -13667,7 +14213,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B113">
@@ -13696,7 +14242,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B114">
@@ -13725,7 +14271,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B115">
@@ -13754,7 +14300,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B116">
@@ -13783,7 +14329,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B117">
@@ -13812,7 +14358,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B118">
@@ -13841,7 +14387,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B119">
@@ -13870,7 +14416,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="6" t="s">
         <v>233</v>
       </c>
       <c r="B120">
@@ -13928,7 +14474,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B122">
@@ -13957,7 +14503,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B123">
@@ -14015,7 +14561,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B125">
@@ -14044,7 +14590,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B126">
@@ -14073,7 +14619,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B127">
@@ -14131,7 +14677,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B129">
@@ -14160,7 +14706,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B130">
@@ -14218,7 +14764,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B132">
@@ -14247,7 +14793,7 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+      <c r="A133" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B133">
@@ -14276,7 +14822,7 @@
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B134">
@@ -14363,7 +14909,7 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
+      <c r="A137" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B137">
@@ -14392,7 +14938,7 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B138">
@@ -14450,7 +14996,7 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B140">
@@ -14479,7 +15025,7 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="10" t="s">
+      <c r="A141" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B141">
@@ -14513,7 +15059,7 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
+      <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B143">
@@ -14571,7 +15117,7 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="10" t="s">
+      <c r="A145" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B145">
@@ -14600,7 +15146,7 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B146">
@@ -14658,7 +15204,7 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B148">
@@ -14687,7 +15233,7 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
+      <c r="A149" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B149">
@@ -14716,7 +15262,7 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
+      <c r="A150" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B150">
@@ -14745,7 +15291,7 @@
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
+      <c r="A151" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B151">
@@ -14803,7 +15349,7 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+      <c r="A153" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B153">
@@ -14832,7 +15378,7 @@
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+      <c r="A154" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B154">
@@ -14861,7 +15407,7 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="10" t="s">
+      <c r="A155" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B155">
@@ -14919,7 +15465,7 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
+      <c r="A157" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B157">
@@ -14948,7 +15494,7 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="10" t="s">
+      <c r="A158" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B158">
@@ -14977,7 +15523,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="10" t="s">
+      <c r="A159" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B159">
@@ -15006,7 +15552,7 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B160">
@@ -15035,7 +15581,7 @@
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="10" t="s">
+      <c r="A161" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B161">
@@ -15064,7 +15610,7 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
+      <c r="A162" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B162">
@@ -15093,7 +15639,7 @@
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
+      <c r="A163" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B163">
@@ -15151,7 +15697,7 @@
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
+      <c r="A165" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B165">
@@ -15180,7 +15726,7 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="10" t="s">
+      <c r="A166" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B166">
@@ -15209,7 +15755,7 @@
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="10" t="s">
+      <c r="A167" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B167">
@@ -15238,7 +15784,7 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B168">
@@ -15267,7 +15813,7 @@
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="10" t="s">
+      <c r="A169" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B169">
@@ -15296,7 +15842,7 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="10" t="s">
+      <c r="A170" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B170">
@@ -15325,7 +15871,7 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B171">
@@ -15441,7 +15987,7 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="10" t="s">
+      <c r="A175" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B175">
@@ -15528,7 +16074,7 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B178">
@@ -15557,7 +16103,7 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B179">
@@ -15615,7 +16161,7 @@
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B181">
@@ -15644,7 +16190,7 @@
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B182">
@@ -15673,7 +16219,7 @@
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B183">
@@ -15702,7 +16248,7 @@
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B184">
@@ -15760,7 +16306,7 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="10" t="s">
+      <c r="A186" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B186">
@@ -15789,7 +16335,7 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
+      <c r="A187" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B187">
@@ -15847,7 +16393,7 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="10" t="s">
+      <c r="A189" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B189">
@@ -15876,7 +16422,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B190">
@@ -15905,7 +16451,7 @@
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
+      <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B191">
@@ -15963,7 +16509,7 @@
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="10" t="s">
+      <c r="A193" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B193">
@@ -16021,7 +16567,7 @@
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="10" t="s">
+      <c r="A195" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B195">
@@ -16050,7 +16596,7 @@
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B196">
@@ -16084,7 +16630,7 @@
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="10" t="s">
+      <c r="A198" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B198">
@@ -16113,7 +16659,7 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B199">
@@ -16142,7 +16688,7 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
+      <c r="A200" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B200">
@@ -16171,7 +16717,7 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B201">
@@ -16200,7 +16746,7 @@
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="s">
+      <c r="A202" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B202">
@@ -16258,7 +16804,7 @@
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B204">
@@ -16287,7 +16833,7 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
+      <c r="A205" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B205">
@@ -16316,7 +16862,7 @@
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
+      <c r="A206" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B206">
@@ -16345,7 +16891,7 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B207">
@@ -16374,7 +16920,7 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B208">
@@ -16403,7 +16949,7 @@
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="10" t="s">
+      <c r="A209" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B209">
@@ -16432,7 +16978,7 @@
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="10" t="s">
+      <c r="A210" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B210">
@@ -16461,7 +17007,7 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B211">
@@ -16490,7 +17036,7 @@
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B212">
@@ -16577,7 +17123,7 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B215">
@@ -16606,7 +17152,7 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="10" t="s">
+      <c r="A216" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B216">
@@ -16635,7 +17181,7 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="10" t="s">
+      <c r="A217" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B217">
@@ -16664,7 +17210,7 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="10" t="s">
+      <c r="A218" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B218">
@@ -16693,7 +17239,7 @@
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A219" s="10" t="s">
+      <c r="A219" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B219">
@@ -16722,7 +17268,7 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="10" t="s">
+      <c r="A220" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B220">
@@ -16780,7 +17326,7 @@
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="10" t="s">
+      <c r="A222" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B222">
@@ -16838,7 +17384,7 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+      <c r="A224" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B224">
@@ -17012,7 +17558,7 @@
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="10" t="s">
+      <c r="A230" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B230">
@@ -17041,7 +17587,7 @@
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="10" t="s">
+      <c r="A231" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B231">
@@ -17070,7 +17616,7 @@
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="10" t="s">
+      <c r="A232" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B232">
@@ -17126,14 +17672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -17184,7 +17730,7 @@
       <c r="B5">
         <v>2630862000</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>284</v>
       </c>
     </row>
@@ -17195,7 +17741,7 @@
       <c r="B6">
         <v>2677609000</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>285</v>
       </c>
     </row>
@@ -17206,7 +17752,7 @@
       <c r="B7">
         <v>2724847000</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>286</v>
       </c>
     </row>
@@ -17217,7 +17763,7 @@
       <c r="B8">
         <v>2773020000</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>287</v>
       </c>
     </row>
@@ -18400,6 +18946,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C42B8D7286C2C84C98942B3B2D5BAAB7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c84fc5764ca1105beab9a114183f636d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="af41d707-9994-4d63-93dc-323777c46aed" xmlns:ns4="75e9a809-be29-4265-ba67-bc5a84a21df3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0120fba51019f416be450d245621c425" ns3:_="" ns4:_="">
     <xsd:import namespace="af41d707-9994-4d63-93dc-323777c46aed"/>
@@ -18596,15 +19151,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
   <ds:schemaRefs>
@@ -18623,6 +19169,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77A472C-86A4-4821-B565-2134CC034AEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18639,12 +19193,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
+++ b/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MCBook2021\chapters\ch02-Boundaries\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch02-Boundaries/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9447FCF9-E8AD-4F5C-B5AA-6ACC01269C50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F2B81-5638-7840-9DA4-4F86406BF2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -926,9 +926,6 @@
     <t xml:space="preserve">        Bdsk-Url-1 = {https://population.un.org/wpp2019/Download/Standard/Population/}}</t>
   </si>
   <si>
-    <t>Ecological_Footprint_gha/person</t>
-  </si>
-  <si>
     <t>Continent</t>
   </si>
   <si>
@@ -948,6 +945,9 @@
   </si>
   <si>
     <t>North America</t>
+  </si>
+  <si>
+    <t>Ecological_Footprint_gha_per_person</t>
   </si>
 </sst>
 </file>
@@ -4409,25 +4409,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D9207-0930-4D6D-87FA-8D2C98238D07}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+    <sheetView zoomScale="97" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B175">'Footprint Network'!A2:B176</f>
         <v>Country Name</v>
       </c>
       <c r="B1" t="str">
-        <v>Ecological_Footprint_gha/person</v>
+        <v>Ecological_Footprint_gha_per_person</v>
       </c>
       <c r="C1" t="str" cm="1">
         <f t="array" ref="C1:C175">'UN Development'!B2:B176</f>
@@ -4438,10 +4438,10 @@
         <v>Population</v>
       </c>
       <c r="E1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <v>Afghanistan</v>
       </c>
@@ -4455,10 +4455,10 @@
         <v>34097944</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <v>Albania</v>
       </c>
@@ -4472,10 +4472,10 @@
         <v>3055278</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>Algeria</v>
       </c>
@@ -4489,10 +4489,10 @@
         <v>40952312</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>Angola</v>
       </c>
@@ -4507,10 +4507,10 @@
         <v>29310737</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <v>Antigua and Barbuda</v>
       </c>
@@ -4525,10 +4525,10 @@
         <v>94537</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <v>Argentina</v>
       </c>
@@ -4542,10 +4542,10 @@
         <v>44292731</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>Armenia</v>
       </c>
@@ -4559,10 +4559,10 @@
         <v>3045086</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>Australia</v>
       </c>
@@ -4577,10 +4577,10 @@
         <v>24370179</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>Austria</v>
       </c>
@@ -4594,10 +4594,10 @@
         <v>8752360</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <v>Azerbaijan</v>
       </c>
@@ -4611,10 +4611,10 @@
         <v>9961850</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <v>Bahamas</v>
       </c>
@@ -4628,10 +4628,10 @@
         <v>340519</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <v>Bahrain</v>
       </c>
@@ -4645,10 +4645,10 @@
         <v>1410746</v>
       </c>
       <c r="E13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <v>Bangladesh</v>
       </c>
@@ -4662,10 +4662,10 @@
         <v>157720078</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <v>Barbados</v>
       </c>
@@ -4679,10 +4679,10 @@
         <v>298086</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <v>Belarus</v>
       </c>
@@ -4696,10 +4696,10 @@
         <v>9541820</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <v>Belgium</v>
       </c>
@@ -4713,10 +4713,10 @@
         <v>11482059</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>Belize</v>
       </c>
@@ -4730,10 +4730,10 @@
         <v>378270</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>Benin</v>
       </c>
@@ -4747,10 +4747,10 @@
         <v>11612447</v>
       </c>
       <c r="E19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <v>Bhutan</v>
       </c>
@@ -4765,10 +4765,10 @@
         <v>822754</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>Bolivarian Republic of Venezuela</v>
       </c>
@@ -4782,10 +4782,10 @@
         <v>30650761</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <v>Bolivia</v>
       </c>
@@ -4799,10 +4799,10 @@
         <v>11101210</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
@@ -4816,10 +4816,10 @@
         <v>3853839</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <v>Botswana</v>
       </c>
@@ -4833,10 +4833,10 @@
         <v>2214659</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>Brazil</v>
       </c>
@@ -4850,10 +4850,10 @@
         <v>207618016</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <v>Brunei Darussalam</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>443198</v>
       </c>
       <c r="E26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <v>Bulgaria</v>
       </c>
@@ -4884,10 +4884,10 @@
         <v>7100884</v>
       </c>
       <c r="E27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <v>Burkina Faso</v>
       </c>
@@ -4901,10 +4901,10 @@
         <v>19198909</v>
       </c>
       <c r="E28" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <v>Burundi</v>
       </c>
@@ -4919,10 +4919,10 @@
         <v>10951667</v>
       </c>
       <c r="E29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <v>CÃ´te d'Ivoire</v>
       </c>
@@ -4936,10 +4936,10 @@
         <v>25652685</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <v>Cabo Verde</v>
       </c>
@@ -4953,10 +4953,10 @@
         <v>560017</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <v>Cambodia</v>
       </c>
@@ -4970,10 +4970,10 @@
         <v>16343705</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <v>Cameroon</v>
       </c>
@@ -4987,10 +4987,10 @@
         <v>25555473</v>
       </c>
       <c r="E33" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <v>Canada</v>
       </c>
@@ -5004,10 +5004,10 @@
         <v>36731939</v>
       </c>
       <c r="E34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <v>Central African Republic</v>
       </c>
@@ -5022,10 +5022,10 @@
         <v>5041175</v>
       </c>
       <c r="E35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <v>Chad</v>
       </c>
@@ -5039,10 +5039,10 @@
         <v>15326202</v>
       </c>
       <c r="E36" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <v>Chile</v>
       </c>
@@ -5056,10 +5056,10 @@
         <v>17786791</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <v>China</v>
       </c>
@@ -5073,10 +5073,10 @@
         <v>1379302771</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <v>Colombia</v>
       </c>
@@ -5090,10 +5090,10 @@
         <v>48200827</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <v>Comoros</v>
       </c>
@@ -5107,10 +5107,10 @@
         <v>813477</v>
       </c>
       <c r="E40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <v>Congo</v>
       </c>
@@ -5124,10 +5124,10 @@
         <v>4954490</v>
       </c>
       <c r="E41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <v>Costa Rica</v>
       </c>
@@ -5142,10 +5142,10 @@
         <v>4928413</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <v>Croatia</v>
       </c>
@@ -5159,10 +5159,10 @@
         <v>4292667</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <v>Cuba</v>
       </c>
@@ -5176,10 +5176,10 @@
         <v>11147117</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <v>Cyprus</v>
       </c>
@@ -5194,10 +5194,10 @@
         <v>1221929</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <v>Czech Republic</v>
       </c>
@@ -5211,10 +5211,10 @@
         <v>10671766</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <v>Democratic Republic of Congo</v>
       </c>
@@ -5228,10 +5228,10 @@
         <v>92453955</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <v>Denmark</v>
       </c>
@@ -5245,10 +5245,10 @@
         <v>5773404</v>
       </c>
       <c r="E48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <v>Djibouti</v>
       </c>
@@ -5262,10 +5262,10 @@
         <v>863611</v>
       </c>
       <c r="E49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <v>Dominica</v>
       </c>
@@ -5279,10 +5279,10 @@
         <v>74228</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <v>Dominican Republic</v>
       </c>
@@ -5296,10 +5296,10 @@
         <v>10195531</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <v>Ecuador</v>
       </c>
@@ -5313,10 +5313,10 @@
         <v>16281498</v>
       </c>
       <c r="E52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <v>Egypt</v>
       </c>
@@ -5330,10 +5330,10 @@
         <v>97037296</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <v>El Salvador</v>
       </c>
@@ -5347,10 +5347,10 @@
         <v>6303924</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <v>Equatorial Guinea</v>
       </c>
@@ -5364,10 +5364,10 @@
         <v>779607</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <v>Eritrea</v>
       </c>
@@ -5381,10 +5381,10 @@
         <v>5926231</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <v>Estonia</v>
       </c>
@@ -5398,10 +5398,10 @@
         <v>1251222</v>
       </c>
       <c r="E57" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <v>Eswatini</v>
       </c>
@@ -5415,10 +5415,10 @@
         <v>1077731</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <v>Ethiopia</v>
       </c>
@@ -5432,10 +5432,10 @@
         <v>99963283</v>
       </c>
       <c r="E59" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <v>Fiji</v>
       </c>
@@ -5450,10 +5450,10 @@
         <v>920176</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <v>Finland</v>
       </c>
@@ -5467,10 +5467,10 @@
         <v>5519372</v>
       </c>
       <c r="E61" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <v>France</v>
       </c>
@@ -5484,10 +5484,10 @@
         <v>67126156</v>
       </c>
       <c r="E62" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <v>Gabon</v>
       </c>
@@ -5502,10 +5502,10 @@
         <v>2060138</v>
       </c>
       <c r="E63" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <v>Gambia</v>
       </c>
@@ -5519,10 +5519,10 @@
         <v>2056778</v>
       </c>
       <c r="E64" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <v>Georgia</v>
       </c>
@@ -5537,10 +5537,10 @@
         <v>4926448</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <v>Germany</v>
       </c>
@@ -5554,10 +5554,10 @@
         <v>80527161</v>
       </c>
       <c r="E66" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <v>Ghana</v>
       </c>
@@ -5571,10 +5571,10 @@
         <v>29479431</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <v>Greece</v>
       </c>
@@ -5589,10 +5589,10 @@
         <v>10698002</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <v>Grenada</v>
       </c>
@@ -5607,10 +5607,10 @@
         <v>111800</v>
       </c>
       <c r="E69" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <v>Guatemala</v>
       </c>
@@ -5625,10 +5625,10 @@
         <v>16289862</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <v>Guinea</v>
       </c>
@@ -5643,10 +5643,10 @@
         <v>11534259</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <v>Guinea-Bissau</v>
       </c>
@@ -5660,10 +5660,10 @@
         <v>1788559</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <v>Guyana</v>
       </c>
@@ -5677,10 +5677,10 @@
         <v>784722</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <v>Haiti</v>
       </c>
@@ -5694,10 +5694,10 @@
         <v>10643145</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <v>Honduras</v>
       </c>
@@ -5711,10 +5711,10 @@
         <v>8876162</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <v>Hungary</v>
       </c>
@@ -5729,10 +5729,10 @@
         <v>9835682</v>
       </c>
       <c r="E76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <v>India</v>
       </c>
@@ -5747,10 +5747,10 @@
         <v>1281971225</v>
       </c>
       <c r="E77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <v>Indonesia</v>
       </c>
@@ -5764,10 +5764,10 @@
         <v>265708968</v>
       </c>
       <c r="E78" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <v>Iraq</v>
       </c>
@@ -5781,10 +5781,10 @@
         <v>36345459</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <v>Ireland</v>
       </c>
@@ -5798,10 +5798,10 @@
         <v>5009156</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <v>Islamic Republic of Iran</v>
       </c>
@@ -5815,10 +5815,10 @@
         <v>82046494</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <v>Israel</v>
       </c>
@@ -5833,10 +5833,10 @@
         <v>8280728</v>
       </c>
       <c r="E82" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <v>Italy</v>
       </c>
@@ -5850,10 +5850,10 @@
         <v>62083001</v>
       </c>
       <c r="E83" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <v>Jamaica</v>
       </c>
@@ -5867,10 +5867,10 @@
         <v>2813518</v>
       </c>
       <c r="E84" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <v>Japan</v>
       </c>
@@ -5884,10 +5884,10 @@
         <v>126215286</v>
       </c>
       <c r="E85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <v>Jordan</v>
       </c>
@@ -5902,10 +5902,10 @@
         <v>10247507</v>
       </c>
       <c r="E86" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <v>Kazakhstan</v>
       </c>
@@ -5919,10 +5919,10 @@
         <v>18549665</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <v>Kenya</v>
       </c>
@@ -5936,10 +5936,10 @@
         <v>50035005</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <v>Kuwait</v>
       </c>
@@ -5954,10 +5954,10 @@
         <v>2876506</v>
       </c>
       <c r="E89" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <v>Kyrgyzstan</v>
       </c>
@@ -5971,10 +5971,10 @@
         <v>5788175</v>
       </c>
       <c r="E90" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <v>Lao People's Democratic Republic</v>
       </c>
@@ -5988,10 +5988,10 @@
         <v>7131518</v>
       </c>
       <c r="E91" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <v>Latvia</v>
       </c>
@@ -6005,10 +6005,10 @@
         <v>1945078</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <v>Lebanon</v>
       </c>
@@ -6022,10 +6022,10 @@
         <v>6223873</v>
       </c>
       <c r="E93" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <v>Lesotho</v>
       </c>
@@ -6039,10 +6039,10 @@
         <v>2114641</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <v>Liberia</v>
       </c>
@@ -6056,10 +6056,10 @@
         <v>4688786</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <v>Libyan Arab Jamahiriya</v>
       </c>
@@ -6073,10 +6073,10 @@
         <v>6483076</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <v>Lithuania</v>
       </c>
@@ -6091,10 +6091,10 @@
         <v>2825940</v>
       </c>
       <c r="E97" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <v>Luxembourg</v>
       </c>
@@ -6108,10 +6108,10 @@
         <v>594319</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <v>Madagascar</v>
       </c>
@@ -6126,10 +6126,10 @@
         <v>25009416</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <v>Malawi</v>
       </c>
@@ -6143,10 +6143,10 @@
         <v>18365567</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <v>Malaysia</v>
       </c>
@@ -6160,10 +6160,10 @@
         <v>32040544</v>
       </c>
       <c r="E101" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <v>Mali</v>
       </c>
@@ -6178,10 +6178,10 @@
         <v>17885069</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <v>Malta</v>
       </c>
@@ -6195,10 +6195,10 @@
         <v>444458</v>
       </c>
       <c r="E103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <v>Mauritania</v>
       </c>
@@ -6213,10 +6213,10 @@
         <v>3752599</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <v>Mauritius</v>
       </c>
@@ -6230,10 +6230,10 @@
         <v>1355418</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <v>Mexico</v>
       </c>
@@ -6247,10 +6247,10 @@
         <v>124632667</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <v>Mongolia</v>
       </c>
@@ -6265,10 +6265,10 @@
         <v>3067699</v>
       </c>
       <c r="E107" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <v>Montenegro</v>
       </c>
@@ -6282,10 +6282,10 @@
         <v>616284</v>
       </c>
       <c r="E108" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <v>Morocco</v>
       </c>
@@ -6300,10 +6300,10 @@
         <v>34510211</v>
       </c>
       <c r="E109" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <v>Mozambique</v>
       </c>
@@ -6317,10 +6317,10 @@
         <v>27809390</v>
       </c>
       <c r="E110" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <v>Namibia</v>
       </c>
@@ -6335,10 +6335,10 @@
         <v>2484586</v>
       </c>
       <c r="E111" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <v>Nepal</v>
       </c>
@@ -6353,10 +6353,10 @@
         <v>29313646</v>
       </c>
       <c r="E112" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <v>Netherlands</v>
       </c>
@@ -6370,10 +6370,10 @@
         <v>17079084</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <v>New Zealand</v>
       </c>
@@ -6388,10 +6388,10 @@
         <v>4700525</v>
       </c>
       <c r="E114" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <v>Nicaragua</v>
       </c>
@@ -6405,10 +6405,10 @@
         <v>6011584</v>
       </c>
       <c r="E115" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <v>Niger</v>
       </c>
@@ -6422,10 +6422,10 @@
         <v>20388375</v>
       </c>
       <c r="E116" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <v>Nigeria</v>
       </c>
@@ -6439,10 +6439,10 @@
         <v>198312085</v>
       </c>
       <c r="E117" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <v>Norway</v>
       </c>
@@ -6457,10 +6457,10 @@
         <v>5318850</v>
       </c>
       <c r="E118" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <v>Oman</v>
       </c>
@@ -6474,10 +6474,10 @@
         <v>3415807</v>
       </c>
       <c r="E119" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <v>Pakistan</v>
       </c>
@@ -6491,10 +6491,10 @@
         <v>219176700</v>
       </c>
       <c r="E120" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <v>Panama</v>
       </c>
@@ -6509,10 +6509,10 @@
         <v>3743955</v>
       </c>
       <c r="E121" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <v>Papua New Guinea</v>
       </c>
@@ -6526,10 +6526,10 @@
         <v>6919792</v>
       </c>
       <c r="E122" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <v>Paraguay</v>
       </c>
@@ -6543,10 +6543,10 @@
         <v>6940221</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <v>Peru</v>
       </c>
@@ -6560,10 +6560,10 @@
         <v>31038222</v>
       </c>
       <c r="E124" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <v>Philippines</v>
       </c>
@@ -6577,10 +6577,10 @@
         <v>104247132</v>
       </c>
       <c r="E125" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <v>Poland</v>
       </c>
@@ -6594,10 +6594,10 @@
         <v>38469803</v>
       </c>
       <c r="E126" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <v>Portugal</v>
       </c>
@@ -6611,10 +6611,10 @@
         <v>10370571</v>
       </c>
       <c r="E127" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <v>Qatar</v>
       </c>
@@ -6629,10 +6629,10 @@
         <v>2316205</v>
       </c>
       <c r="E128" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <v>Republic of Korea</v>
       </c>
@@ -6646,10 +6646,10 @@
         <v>51134612</v>
       </c>
       <c r="E129" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <v>Republic of Moldova</v>
       </c>
@@ -6663,10 +6663,10 @@
         <v>3469042</v>
       </c>
       <c r="E130" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <v>Republic of North Macedonia</v>
       </c>
@@ -6680,10 +6680,10 @@
         <v>2114687</v>
       </c>
       <c r="E131" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <v>Romania</v>
       </c>
@@ -6697,10 +6697,10 @@
         <v>21536726</v>
       </c>
       <c r="E132" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <v>Russian Federation</v>
       </c>
@@ -6714,10 +6714,10 @@
         <v>143150610</v>
       </c>
       <c r="E133" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <v>Rwanda</v>
       </c>
@@ -6731,10 +6731,10 @@
         <v>11899254</v>
       </c>
       <c r="E134" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <v>Saint Lucia</v>
       </c>
@@ -6749,10 +6749,10 @@
         <v>164584</v>
       </c>
       <c r="E135" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <v>Saint Vincent and Grenadines</v>
       </c>
@@ -6767,10 +6767,10 @@
         <v>101985</v>
       </c>
       <c r="E136" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <v>Samoa</v>
       </c>
@@ -6784,10 +6784,10 @@
         <v>200056</v>
       </c>
       <c r="E137" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <v>Sao Tome and Principe</v>
       </c>
@@ -6802,10 +6802,10 @@
         <v>200744</v>
       </c>
       <c r="E138" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <v>Saudi Arabia</v>
       </c>
@@ -6819,10 +6819,10 @@
         <v>32567388</v>
       </c>
       <c r="E139" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <v>Senegal</v>
       </c>
@@ -6836,10 +6836,10 @@
         <v>14660011</v>
       </c>
       <c r="E140" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <v>Serbia</v>
       </c>
@@ -6853,10 +6853,10 @@
         <v>7108516</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <v>Sierra Leone</v>
       </c>
@@ -6871,10 +6871,10 @@
         <v>6183278</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <v>Singapore</v>
       </c>
@@ -6888,10 +6888,10 @@
         <v>5637272</v>
       </c>
       <c r="E143" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <v>Slovakia</v>
       </c>
@@ -6906,10 +6906,10 @@
         <v>5445176</v>
       </c>
       <c r="E144" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <v>Slovenia</v>
       </c>
@@ -6923,10 +6923,10 @@
         <v>2101369</v>
       </c>
       <c r="E145" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <v>Solomon Islands</v>
       </c>
@@ -6940,10 +6940,10 @@
         <v>641944</v>
       </c>
       <c r="E146" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <v>South Africa</v>
       </c>
@@ -6958,10 +6958,10 @@
         <v>54821014</v>
       </c>
       <c r="E147" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <v>Spain</v>
       </c>
@@ -6976,10 +6976,10 @@
         <v>47232034</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <v>Sri Lanka</v>
       </c>
@@ -6993,10 +6993,10 @@
         <v>22410749</v>
       </c>
       <c r="E149" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <v>Sudan</v>
       </c>
@@ -7011,10 +7011,10 @@
         <v>41818056</v>
       </c>
       <c r="E150" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <v>Suriname</v>
       </c>
@@ -7028,10 +7028,10 @@
         <v>591380</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <v>Sweden</v>
       </c>
@@ -7045,10 +7045,10 @@
         <v>9953746</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <v>Switzerland</v>
       </c>
@@ -7062,10 +7062,10 @@
         <v>8231519</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <v>Syrian Arab Republic</v>
       </c>
@@ -7079,10 +7079,10 @@
         <v>17463180</v>
       </c>
       <c r="E154" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <v>Tajikistan</v>
       </c>
@@ -7097,10 +7097,10 @@
         <v>8458972</v>
       </c>
       <c r="E155" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <v>Thailand</v>
       </c>
@@ -7114,10 +7114,10 @@
         <v>68607190</v>
       </c>
       <c r="E156" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <v>Timor-Leste</v>
       </c>
@@ -7131,10 +7131,10 @@
         <v>1290927</v>
       </c>
       <c r="E157" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <v>Togo</v>
       </c>
@@ -7148,10 +7148,10 @@
         <v>7471768</v>
       </c>
       <c r="E158" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <v>Tonga</v>
       </c>
@@ -7165,10 +7165,10 @@
         <v>106428</v>
       </c>
       <c r="E159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <v>Trinidad and Tobago</v>
       </c>
@@ -7182,10 +7182,10 @@
         <v>1231013</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <v>Tunisia</v>
       </c>
@@ -7199,10 +7199,10 @@
         <v>11403062</v>
       </c>
       <c r="E161" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <v>Turkey</v>
       </c>
@@ -7216,10 +7216,10 @@
         <v>80808069</v>
       </c>
       <c r="E162" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <v>Turkmenistan</v>
       </c>
@@ -7233,10 +7233,10 @@
         <v>5346603</v>
       </c>
       <c r="E163" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <v>Uganda</v>
       </c>
@@ -7251,10 +7251,10 @@
         <v>39184992</v>
       </c>
       <c r="E164" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <v>Ukraine</v>
       </c>
@@ -7268,10 +7268,10 @@
         <v>44029189</v>
       </c>
       <c r="E165" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <v>United Arab Emirates</v>
       </c>
@@ -7285,10 +7285,10 @@
         <v>9543192</v>
       </c>
       <c r="E166" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <v>United Kingdom</v>
       </c>
@@ -7302,10 +7302,10 @@
         <v>64739016</v>
       </c>
       <c r="E167" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <v>United Rpublic of Tanzania</v>
       </c>
@@ -7319,10 +7319,10 @@
         <v>55303380</v>
       </c>
       <c r="E168" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <v>United States of America</v>
       </c>
@@ -7336,10 +7336,10 @@
         <v>324985539</v>
       </c>
       <c r="E169" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <v>Uzbekistan</v>
       </c>
@@ -7354,10 +7354,10 @@
         <v>29755821</v>
       </c>
       <c r="E170" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <v>Viet Nam</v>
       </c>
@@ -7372,10 +7372,10 @@
         <v>98482273</v>
       </c>
       <c r="E171" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <v>World</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <v>Yemen</v>
       </c>
@@ -7408,10 +7408,10 @@
         <v>27984859</v>
       </c>
       <c r="E173" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <v>Zambia</v>
       </c>
@@ -7425,10 +7425,10 @@
         <v>16920529</v>
       </c>
       <c r="E174" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <v>Zimbabwe</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>13805081</v>
       </c>
       <c r="E175" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7455,20 +7455,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154BB9A-0467-4D8D-9DFF-F1782FEFFC6B}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -7479,12 +7479,12 @@
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>2930450</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>24450600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>8735450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>9827590</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>395361</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>1492580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>164670000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>285719</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>9468340</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>11429300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>374681</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>11175700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>807610</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>31977100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>11051600</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>3507020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>2291660</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>209288000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>428697</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>7084570</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>19193400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>10864200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>24294800</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>546388</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>16005400</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>24053700</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>36624200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>4659080</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>18054700</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1441129984</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>49065600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>813912</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>5260750</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>4905770</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>4189350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>11484600</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>1179550</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>10618300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>81340000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>5733550</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>956985</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>73925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>10767000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>16624900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>97553104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>6377850</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>1267690</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>5068830</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>1309630</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>1367250</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>104957000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>905502</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>5523230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>65018200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>2025140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>2100570</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3912060</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>82114200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>28833600</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>11159800</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>107825</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>16913500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>12717200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>1861280</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>777859</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>10981200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>9265070</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>9721560</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>1339180032</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>263991008</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>38274600</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>4761660</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>81162800</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>8321570</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>59394104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>127484000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>9702350</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>18204500</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>49699896</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>4136530</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>6045120</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>6858160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>1949670</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>6082360</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>2233340</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>4731910</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>6374620</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>583455</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>25570900</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>18622100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>31624300</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>18542000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>430835</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>4420180</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>1265140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>129163000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>3075650</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>628960</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>35739600</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>29668800</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>2533790</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>29305000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>17035900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>4705820</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>6217580</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>21477300</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>190886000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>5305380</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>4636260</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>197016000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>4098590</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>8251160</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>6811300</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>32165500</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>104918000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>38170700</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>10329500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>2639210</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>50982200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>4051210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>2083160</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>19679300</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>143990000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>12208400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>178844</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>109897</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>196440</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>204327</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>32938200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>15850600</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>8790570</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>7557210</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>5708840</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>5447660</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>2079980</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>611343</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>56717200</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>46354300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>20876900</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>40533300</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>563402</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>9910700</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>8476000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>18269900</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>8921340</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>69037504</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>1296310</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>7797690</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>108020</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1369120</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>11532100</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>80745000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>5758080</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>42863000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>44222896</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>9400140</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>66181600</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>57310000</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>324459008</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>31910600</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>95540800</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>7550260224</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>28250400</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>17094100</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -9460,15 +9460,15 @@
       <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -9478,7 +9478,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -10804,7 +10804,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -10933,13 +10933,13 @@
       <selection activeCell="C76" sqref="C75:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -11094,7 +11094,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>208</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>165</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>175</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>210</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>94.91</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>211</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>216</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>89.53</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>74.38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>136.02000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>124.01</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>31</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>35</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>215</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>94.94</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>40</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>70.349999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>45</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>46</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>47</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>97.36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>48</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>161</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>58.22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -12994,7 +12994,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>49</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>19.12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>50</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>51</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>219</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>53</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>58</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>60</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>61</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>62</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>64</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>65.19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>65</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>66</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>68</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>69</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>70</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>71</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>172</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>72</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>73</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>76</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>77</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>78</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>75</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>80</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>46.34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>47.77</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>47.31</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>82</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>79</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
@@ -14299,7 +14299,7 @@
         <v>73.41</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>85</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>86</v>
       </c>
@@ -14386,7 +14386,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>87</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>233</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>234</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>89</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>166</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>90</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>91</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>92</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>111.23</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>94</v>
       </c>
@@ -14734,7 +14734,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -14763,7 +14763,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>95</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>96</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>97</v>
       </c>
@@ -14850,7 +14850,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>98</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>168</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>240</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>99</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>100</v>
       </c>
@@ -15053,12 +15053,12 @@
         <v>108.89</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>241</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>103</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>35.03</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>104</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>242</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>106</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>107</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>108</v>
       </c>
@@ -15290,7 +15290,7 @@
         <v>116.19</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>109</v>
       </c>
@@ -15319,7 +15319,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>243</v>
       </c>
@@ -15348,7 +15348,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>110</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>150</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>111</v>
       </c>
@@ -15435,7 +15435,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>244</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>15.17</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>112</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>114</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>55.97</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>115</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>116</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>27.81</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>117</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>118</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>119</v>
       </c>
@@ -15667,7 +15667,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>123</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>173</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>101</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>105</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>125</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>246</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>126</v>
       </c>
@@ -15899,7 +15899,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>247</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>248</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>249</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>128</v>
       </c>
@@ -16015,7 +16015,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>250</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>251</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>252</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>253</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>130</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>74.48</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>131</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>132</v>
       </c>
@@ -16247,7 +16247,7 @@
         <v>92.76</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>167</v>
       </c>
@@ -16276,7 +16276,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>254</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>133</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>108.68</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>136</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>135</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>134</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -16479,7 +16479,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>256</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>155.18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>137</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>257</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>152.33000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>138</v>
       </c>
@@ -16595,7 +16595,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>29</v>
       </c>
@@ -16624,12 +16624,12 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>169</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>139</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>37.369999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>142</v>
       </c>
@@ -16716,7 +16716,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>143</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>258</v>
       </c>
@@ -16774,7 +16774,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>259</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>140</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>146</v>
       </c>
@@ -16861,7 +16861,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>121</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>48.13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>147</v>
       </c>
@@ -16919,7 +16919,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>148</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>149</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>151</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>152</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>145</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>51.73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>154</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>156</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>153</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>155</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>279</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>262</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>159</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>265</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>266</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>268</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>269</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>270</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>86.12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>163</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>69.38</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>164</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>124</v>
       </c>
@@ -17666,12 +17666,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>177</v>
       </c>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1951</v>
       </c>
@@ -17723,7 +17723,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1952</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1953</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1954</v>
       </c>
@@ -17756,7 +17756,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1955</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1956</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>2822443000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1957</v>
       </c>
@@ -17783,7 +17783,7 @@
         <v>2873306000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>2925687000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1959</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>2979576000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1960</v>
       </c>
@@ -17807,7 +17807,7 @@
         <v>3034950000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1961</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>3091844000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1962</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>3150421000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1963</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>3211001000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1964</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>3273978000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1965</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>3339584000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1966</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>3407923000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1967</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>3478770000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1968</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>3551599000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1969</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>3625681000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1970</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>3700437000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1971</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>3775760000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1972</v>
       </c>
@@ -17903,7 +17903,7 @@
         <v>3851651000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1973</v>
       </c>
@@ -17911,7 +17911,7 @@
         <v>3927781000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1974</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>4003794000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1975</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>4079480000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1976</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>4154667000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1977</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>4229506000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1978</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>4304534000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1979</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>4380506000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1980</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>4458003000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1981</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>4536997000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1982</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>4617387000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1983</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>4699569000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1984</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>4784012000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1985</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>4870922000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1986</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>4960568000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1987</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>5052522000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1988</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>5145426000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1989</v>
       </c>
@@ -18039,7 +18039,7 @@
         <v>5237441000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1990</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>5327231000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1991</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>5414289000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1992</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>5498920000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>5581598000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1994</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>5663150000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1995</v>
       </c>
@@ -18087,7 +18087,7 @@
         <v>5744213000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1996</v>
       </c>
@@ -18095,7 +18095,7 @@
         <v>5824892000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1997</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>5905046000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1998</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>5984794000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1999</v>
       </c>
@@ -18119,7 +18119,7 @@
         <v>6064239000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -18127,7 +18127,7 @@
         <v>6143494000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>6222627000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -18143,7 +18143,7 @@
         <v>6301773000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -18151,7 +18151,7 @@
         <v>6381185000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>6461159000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -18167,7 +18167,7 @@
         <v>6541907000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>6623518000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2007</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>6705947000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2008</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>6789089000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2009</v>
       </c>
@@ -18199,7 +18199,7 @@
         <v>6872767000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>6956824000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>7041194000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>7125828000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>7210582000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>7295291000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>7379797000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -18255,7 +18255,7 @@
         <v>7464022000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -18263,7 +18263,7 @@
         <v>7547859000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -18271,7 +18271,7 @@
         <v>7631091000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>7713468000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>7794799000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>7874966000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>7953953000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>8031800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2024</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>8108605000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2025</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>8184437000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2026</v>
       </c>
@@ -18335,7 +18335,7 @@
         <v>8259277000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2027</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>8333078000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2028</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>8405863000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2029</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>8477661000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2030</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>8548487000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2031</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>8618349000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2032</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>8687228000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2033</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>8755084000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2034</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>8821863000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2035</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>8887524000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2036</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>8952049000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2037</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>9015438000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2038</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>9077694000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2039</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>9138829000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2040</v>
       </c>
@@ -18447,7 +18447,7 @@
         <v>9198847000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2041</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v>9257745000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2042</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>9315508000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2043</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>9372118000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2044</v>
       </c>
@@ -18479,7 +18479,7 @@
         <v>9427555000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2045</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>9481803000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2046</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>9534855000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2047</v>
       </c>
@@ -18503,7 +18503,7 @@
         <v>9586708000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2048</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>9637357000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2049</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>9686800000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2050</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>9735034000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2051</v>
       </c>
@@ -18535,7 +18535,7 @@
         <v>9782062000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2052</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>9827885000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2053</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>9872502000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2054</v>
       </c>
@@ -18559,7 +18559,7 @@
         <v>9915905000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2055</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>9958099000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2056</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>9999085000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2057</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>10038881000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2058</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>10077518000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2059</v>
       </c>
@@ -18599,7 +18599,7 @@
         <v>10115036000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2060</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>10151470000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2061</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>10186837000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2062</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>10221149000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2063</v>
       </c>
@@ -18631,7 +18631,7 @@
         <v>10254419000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2064</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>10286658000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2065</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>10317879000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2066</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>10348098000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2067</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>10377331000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2068</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>10405591000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2069</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>10432889000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2070</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>10459240000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2071</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>10484655000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2072</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>10509150000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2073</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>10532743000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2074</v>
       </c>
@@ -18719,7 +18719,7 @@
         <v>10555450000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2075</v>
       </c>
@@ -18727,7 +18727,7 @@
         <v>10577288000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2076</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>10598274000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2077</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>10618421000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2078</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>10637737000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2079</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>10656228000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2080</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>10673904000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2081</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>10690773000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2082</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>10706852000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2083</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>10722171000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2084</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>10736765000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2085</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>10750662000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2086</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>10763874000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2087</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>10776402000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2088</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>10788249000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2089</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>10799413000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2090</v>
       </c>
@@ -18847,7 +18847,7 @@
         <v>10809892000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2091</v>
       </c>
@@ -18855,7 +18855,7 @@
         <v>10819683000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2092</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>10828781000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2093</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>10837182000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2094</v>
       </c>
@@ -18879,7 +18879,7 @@
         <v>10844879000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2095</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>10851860000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2096</v>
       </c>
@@ -18895,7 +18895,7 @@
         <v>10858112000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2097</v>
       </c>
@@ -18903,7 +18903,7 @@
         <v>10863615000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2098</v>
       </c>
@@ -18911,7 +18911,7 @@
         <v>10868348000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2099</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>10872284000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2100</v>
       </c>
@@ -18940,21 +18940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C42B8D7286C2C84C98942B3B2D5BAAB7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c84fc5764ca1105beab9a114183f636d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="af41d707-9994-4d63-93dc-323777c46aed" xmlns:ns4="75e9a809-be29-4265-ba67-bc5a84a21df3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0120fba51019f416be450d245621c425" ns3:_="" ns4:_="">
     <xsd:import namespace="af41d707-9994-4d63-93dc-323777c46aed"/>
@@ -19151,32 +19136,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="af41d707-9994-4d63-93dc-323777c46aed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="75e9a809-be29-4265-ba67-bc5a84a21df3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77A472C-86A4-4821-B565-2134CC034AEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19193,4 +19168,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="af41d707-9994-4d63-93dc-323777c46aed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75e9a809-be29-4265-ba67-bc5a84a21df3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
+++ b/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch02-Boundaries/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F2B81-5638-7840-9DA4-4F86406BF2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97244DED-8CD3-F046-B61E-BF56F7BCE40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -24,28 +24,18 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'UN Development'!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -938,16 +928,16 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Oceania</t>
   </si>
   <si>
-    <t>North America</t>
-  </si>
-  <si>
     <t>Ecological_Footprint_gha_per_person</t>
+  </si>
+  <si>
+    <t>North Am.</t>
+  </si>
+  <si>
+    <t>South Am.</t>
   </si>
 </sst>
 </file>
@@ -4409,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D9207-0930-4D6D-87FA-8D2C98238D07}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4542,7 +4532,7 @@
         <v>44292731</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4577,7 +4567,7 @@
         <v>24370179</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4782,7 +4772,7 @@
         <v>30650761</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -4799,7 +4789,7 @@
         <v>11101210</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -4850,7 +4840,7 @@
         <v>207618016</v>
       </c>
       <c r="E25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -5056,7 +5046,7 @@
         <v>17786791</v>
       </c>
       <c r="E37" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -5090,7 +5080,7 @@
         <v>48200827</v>
       </c>
       <c r="E39" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -5313,7 +5303,7 @@
         <v>16281498</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5450,7 +5440,7 @@
         <v>920176</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -5677,7 +5667,7 @@
         <v>784722</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -6388,7 +6378,7 @@
         <v>4700525</v>
       </c>
       <c r="E114" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6526,7 +6516,7 @@
         <v>6919792</v>
       </c>
       <c r="E122" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -6543,7 +6533,7 @@
         <v>6940221</v>
       </c>
       <c r="E123" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6560,7 +6550,7 @@
         <v>31038222</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6784,7 +6774,7 @@
         <v>200056</v>
       </c>
       <c r="E137" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -6940,7 +6930,7 @@
         <v>641944</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -7028,7 +7018,7 @@
         <v>591380</v>
       </c>
       <c r="E151" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -7165,7 +7155,7 @@
         <v>106428</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -7455,7 +7445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8154BB9A-0467-4D8D-9DFF-F1782FEFFC6B}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -7484,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -19137,18 +19127,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19171,14 +19161,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -19193,4 +19175,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
+++ b/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch02-Boundaries/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MCBook2021\chapters\ch02-Boundaries\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97244DED-8CD3-F046-B61E-BF56F7BCE40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309CC32-835C-453A-954A-CA351750DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -20,22 +20,33 @@
     <sheet name="UN World Population Data" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data to plot'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Footprint Network'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'UN Development'!$A$2:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -50,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="295">
   <si>
     <t>Country Name</t>
   </si>
@@ -928,16 +939,13 @@
     <t>Africa</t>
   </si>
   <si>
-    <t>Oceania</t>
-  </si>
-  <si>
     <t>Ecological_Footprint_gha_per_person</t>
   </si>
   <si>
     <t>North Am.</t>
   </si>
   <si>
-    <t>South Am.</t>
+    <t>Latin Am.</t>
   </si>
 </sst>
 </file>
@@ -4399,19 +4407,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D9207-0930-4D6D-87FA-8D2C98238D07}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B175">'Footprint Network'!A2:B176</f>
         <v>Country Name</v>
@@ -4431,7 +4439,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <v>Afghanistan</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>Albania</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Algeria</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Angola</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <v>Antigua and Barbuda</v>
       </c>
@@ -4518,7 +4526,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <v>Argentina</v>
       </c>
@@ -4532,10 +4540,10 @@
         <v>44292731</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>Armenia</v>
       </c>
@@ -4552,7 +4560,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Australia</v>
       </c>
@@ -4567,10 +4575,10 @@
         <v>24370179</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Austria</v>
       </c>
@@ -4587,7 +4595,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <v>Azerbaijan</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <v>Bahamas</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <v>Bahrain</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Bangladesh</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Barbados</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>Belarus</v>
       </c>
@@ -4689,7 +4697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>Belgium</v>
       </c>
@@ -4706,7 +4714,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>Belize</v>
       </c>
@@ -4723,7 +4731,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Benin</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Bhutan</v>
       </c>
@@ -4758,7 +4766,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <v>Bolivarian Republic of Venezuela</v>
       </c>
@@ -4772,10 +4780,10 @@
         <v>30650761</v>
       </c>
       <c r="E21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <v>Bolivia</v>
       </c>
@@ -4789,10 +4797,10 @@
         <v>11101210</v>
       </c>
       <c r="E22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
@@ -4809,7 +4817,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <v>Botswana</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <v>Brazil</v>
       </c>
@@ -4840,10 +4848,10 @@
         <v>207618016</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <v>Brunei Darussalam</v>
       </c>
@@ -4860,7 +4868,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <v>Bulgaria</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <v>Burkina Faso</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <v>Burundi</v>
       </c>
@@ -4912,7 +4920,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <v>CÃ´te d'Ivoire</v>
       </c>
@@ -4929,7 +4937,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <v>Cabo Verde</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>Cambodia</v>
       </c>
@@ -4963,7 +4971,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Cameroon</v>
       </c>
@@ -4980,7 +4988,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <v>Canada</v>
       </c>
@@ -4994,10 +5002,10 @@
         <v>36731939</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>Central African Republic</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <v>Chad</v>
       </c>
@@ -5032,7 +5040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>Chile</v>
       </c>
@@ -5046,10 +5054,10 @@
         <v>17786791</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <v>China</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <v>Colombia</v>
       </c>
@@ -5080,10 +5088,10 @@
         <v>48200827</v>
       </c>
       <c r="E39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <v>Comoros</v>
       </c>
@@ -5100,7 +5108,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Congo</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <v>Costa Rica</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <v>Croatia</v>
       </c>
@@ -5152,7 +5160,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <v>Cuba</v>
       </c>
@@ -5169,7 +5177,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <v>Cyprus</v>
       </c>
@@ -5187,7 +5195,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <v>Czech Republic</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>Democratic Republic of Congo</v>
       </c>
@@ -5221,7 +5229,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <v>Denmark</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <v>Djibouti</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <v>Dominica</v>
       </c>
@@ -5272,7 +5280,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <v>Dominican Republic</v>
       </c>
@@ -5289,7 +5297,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <v>Ecuador</v>
       </c>
@@ -5303,10 +5311,10 @@
         <v>16281498</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <v>Egypt</v>
       </c>
@@ -5323,7 +5331,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>El Salvador</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <v>Equatorial Guinea</v>
       </c>
@@ -5357,7 +5365,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <v>Eritrea</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <v>Estonia</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <v>Eswatini</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <v>Ethiopia</v>
       </c>
@@ -5425,7 +5433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <v>Fiji</v>
       </c>
@@ -5440,10 +5448,10 @@
         <v>920176</v>
       </c>
       <c r="E60" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <v>Finland</v>
       </c>
@@ -5460,7 +5468,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <v>France</v>
       </c>
@@ -5477,7 +5485,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <v>Gabon</v>
       </c>
@@ -5495,7 +5503,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <v>Gambia</v>
       </c>
@@ -5512,7 +5520,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <v>Georgia</v>
       </c>
@@ -5530,7 +5538,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <v>Germany</v>
       </c>
@@ -5547,7 +5555,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <v>Ghana</v>
       </c>
@@ -5564,7 +5572,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <v>Greece</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <v>Grenada</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <v>Guatemala</v>
       </c>
@@ -5618,7 +5626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <v>Guinea</v>
       </c>
@@ -5636,7 +5644,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <v>Guinea-Bissau</v>
       </c>
@@ -5653,7 +5661,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <v>Guyana</v>
       </c>
@@ -5667,10 +5675,10 @@
         <v>784722</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <v>Haiti</v>
       </c>
@@ -5687,7 +5695,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <v>Honduras</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <v>Hungary</v>
       </c>
@@ -5722,7 +5730,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <v>India</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <v>Indonesia</v>
       </c>
@@ -5757,7 +5765,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <v>Iraq</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <v>Ireland</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <v>Islamic Republic of Iran</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <v>Israel</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <v>Italy</v>
       </c>
@@ -5843,7 +5851,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <v>Jamaica</v>
       </c>
@@ -5860,7 +5868,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <v>Japan</v>
       </c>
@@ -5877,7 +5885,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <v>Jordan</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <v>Kazakhstan</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <v>Kenya</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <v>Kuwait</v>
       </c>
@@ -5947,7 +5955,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <v>Kyrgyzstan</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <v>Lao People's Democratic Republic</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <v>Latvia</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <v>Lebanon</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <v>Lesotho</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <v>Liberia</v>
       </c>
@@ -6049,7 +6057,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <v>Libyan Arab Jamahiriya</v>
       </c>
@@ -6066,7 +6074,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <v>Lithuania</v>
       </c>
@@ -6084,7 +6092,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <v>Luxembourg</v>
       </c>
@@ -6101,7 +6109,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <v>Madagascar</v>
       </c>
@@ -6119,7 +6127,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <v>Malawi</v>
       </c>
@@ -6136,7 +6144,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <v>Malaysia</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <v>Mali</v>
       </c>
@@ -6171,7 +6179,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <v>Malta</v>
       </c>
@@ -6188,7 +6196,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <v>Mauritania</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <v>Mauritius</v>
       </c>
@@ -6223,7 +6231,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <v>Mexico</v>
       </c>
@@ -6237,10 +6245,10 @@
         <v>124632667</v>
       </c>
       <c r="E106" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <v>Mongolia</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <v>Montenegro</v>
       </c>
@@ -6275,7 +6283,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <v>Morocco</v>
       </c>
@@ -6293,7 +6301,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <v>Mozambique</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <v>Namibia</v>
       </c>
@@ -6328,7 +6336,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <v>Nepal</v>
       </c>
@@ -6346,7 +6354,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <v>Netherlands</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <v>New Zealand</v>
       </c>
@@ -6378,10 +6386,10 @@
         <v>4700525</v>
       </c>
       <c r="E114" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <v>Nicaragua</v>
       </c>
@@ -6398,7 +6406,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <v>Niger</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <v>Nigeria</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <v>Norway</v>
       </c>
@@ -6450,7 +6458,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <v>Oman</v>
       </c>
@@ -6467,7 +6475,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <v>Pakistan</v>
       </c>
@@ -6484,7 +6492,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <v>Panama</v>
       </c>
@@ -6502,7 +6510,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <v>Papua New Guinea</v>
       </c>
@@ -6516,10 +6524,10 @@
         <v>6919792</v>
       </c>
       <c r="E122" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <v>Paraguay</v>
       </c>
@@ -6533,10 +6541,10 @@
         <v>6940221</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <v>Peru</v>
       </c>
@@ -6550,10 +6558,10 @@
         <v>31038222</v>
       </c>
       <c r="E124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <v>Philippines</v>
       </c>
@@ -6570,7 +6578,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <v>Poland</v>
       </c>
@@ -6587,7 +6595,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <v>Portugal</v>
       </c>
@@ -6604,7 +6612,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <v>Qatar</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <v>Republic of Korea</v>
       </c>
@@ -6639,7 +6647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <v>Republic of Moldova</v>
       </c>
@@ -6656,7 +6664,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <v>Republic of North Macedonia</v>
       </c>
@@ -6673,7 +6681,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <v>Romania</v>
       </c>
@@ -6690,7 +6698,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <v>Russian Federation</v>
       </c>
@@ -6707,7 +6715,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <v>Rwanda</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <v>Saint Lucia</v>
       </c>
@@ -6742,7 +6750,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <v>Saint Vincent and Grenadines</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <v>Samoa</v>
       </c>
@@ -6774,10 +6782,10 @@
         <v>200056</v>
       </c>
       <c r="E137" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <v>Sao Tome and Principe</v>
       </c>
@@ -6795,7 +6803,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <v>Saudi Arabia</v>
       </c>
@@ -6812,7 +6820,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <v>Senegal</v>
       </c>
@@ -6829,7 +6837,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <v>Serbia</v>
       </c>
@@ -6846,7 +6854,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <v>Sierra Leone</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <v>Singapore</v>
       </c>
@@ -6881,7 +6889,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <v>Slovakia</v>
       </c>
@@ -6899,7 +6907,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <v>Slovenia</v>
       </c>
@@ -6916,7 +6924,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <v>Solomon Islands</v>
       </c>
@@ -6930,10 +6938,10 @@
         <v>641944</v>
       </c>
       <c r="E146" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <v>South Africa</v>
       </c>
@@ -6951,7 +6959,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <v>Spain</v>
       </c>
@@ -6969,7 +6977,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <v>Sri Lanka</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <v>Sudan</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <v>Suriname</v>
       </c>
@@ -7018,10 +7026,10 @@
         <v>591380</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <v>Sweden</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <v>Switzerland</v>
       </c>
@@ -7055,7 +7063,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <v>Syrian Arab Republic</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <v>Tajikistan</v>
       </c>
@@ -7090,7 +7098,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <v>Thailand</v>
       </c>
@@ -7107,7 +7115,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="str">
         <v>Timor-Leste</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="str">
         <v>Togo</v>
       </c>
@@ -7141,7 +7149,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="str">
         <v>Tonga</v>
       </c>
@@ -7155,10 +7163,10 @@
         <v>106428</v>
       </c>
       <c r="E159" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="str">
         <v>Trinidad and Tobago</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <v>Tunisia</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="str">
         <v>Turkey</v>
       </c>
@@ -7209,7 +7217,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="str">
         <v>Turkmenistan</v>
       </c>
@@ -7226,7 +7234,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <v>Uganda</v>
       </c>
@@ -7244,7 +7252,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="str">
         <v>Ukraine</v>
       </c>
@@ -7261,7 +7269,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="str">
         <v>United Arab Emirates</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="str">
         <v>United Kingdom</v>
       </c>
@@ -7295,7 +7303,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <v>United Rpublic of Tanzania</v>
       </c>
@@ -7312,7 +7320,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="str">
         <v>United States of America</v>
       </c>
@@ -7326,10 +7334,10 @@
         <v>324985539</v>
       </c>
       <c r="E169" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="str">
         <v>Uzbekistan</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <v>Viet Nam</v>
       </c>
@@ -7365,7 +7373,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
         <v>World</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="str">
         <v>Yemen</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <v>Zambia</v>
       </c>
@@ -7418,7 +7426,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <v>Zimbabwe</v>
       </c>
@@ -7446,19 +7454,19 @@
   <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -7469,12 +7477,12 @@
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -7486,7 +7494,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7503,7 +7511,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7520,7 +7528,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7534,7 +7542,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7576,7 +7584,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7587,7 +7595,7 @@
         <v>2930450</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7606,7 @@
         <v>24450600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7609,7 +7617,7 @@
         <v>8735450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -7620,7 +7628,7 @@
         <v>9827590</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7631,7 +7639,7 @@
         <v>395361</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7642,7 +7650,7 @@
         <v>1492580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7653,7 +7661,7 @@
         <v>164670000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>285719</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7675,7 +7683,7 @@
         <v>9468340</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -7686,7 +7694,7 @@
         <v>11429300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>374681</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7708,7 +7716,7 @@
         <v>11175700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -7719,7 +7727,7 @@
         <v>807610</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -7730,7 +7738,7 @@
         <v>31977100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7741,7 +7749,7 @@
         <v>11051600</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>3507020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7763,7 +7771,7 @@
         <v>2291660</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -7774,7 +7782,7 @@
         <v>209288000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7785,7 +7793,7 @@
         <v>428697</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7796,7 +7804,7 @@
         <v>7084570</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -7807,7 +7815,7 @@
         <v>19193400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>10864200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -7829,7 +7837,7 @@
         <v>24294800</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -7840,7 +7848,7 @@
         <v>546388</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -7851,7 +7859,7 @@
         <v>16005400</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7862,7 +7870,7 @@
         <v>24053700</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7873,7 +7881,7 @@
         <v>36624200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -7884,7 +7892,7 @@
         <v>4659080</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -7906,7 +7914,7 @@
         <v>18054700</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -7917,7 +7925,7 @@
         <v>1441129984</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>49065600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -7939,7 +7947,7 @@
         <v>813912</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -7950,7 +7958,7 @@
         <v>5260750</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -7961,7 +7969,7 @@
         <v>4905770</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -7972,7 +7980,7 @@
         <v>4189350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -7983,7 +7991,7 @@
         <v>11484600</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>1179550</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -8005,7 +8013,7 @@
         <v>10618300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -8016,7 +8024,7 @@
         <v>81340000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>5733550</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8038,7 +8046,7 @@
         <v>956985</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -8049,7 +8057,7 @@
         <v>73925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -8060,7 +8068,7 @@
         <v>10767000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -8071,7 +8079,7 @@
         <v>16624900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -8082,7 +8090,7 @@
         <v>97553104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -8093,7 +8101,7 @@
         <v>6377850</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>1267690</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>5068830</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -8126,7 +8134,7 @@
         <v>1309630</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>1367250</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -8148,7 +8156,7 @@
         <v>104957000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -8159,7 +8167,7 @@
         <v>905502</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -8170,7 +8178,7 @@
         <v>5523230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -8181,7 +8189,7 @@
         <v>65018200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -8192,7 +8200,7 @@
         <v>2025140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -8203,7 +8211,7 @@
         <v>2100570</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -8214,7 +8222,7 @@
         <v>3912060</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -8225,7 +8233,7 @@
         <v>82114200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -8236,7 +8244,7 @@
         <v>28833600</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -8247,7 +8255,7 @@
         <v>11159800</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>107825</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -8269,7 +8277,7 @@
         <v>16913500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -8280,7 +8288,7 @@
         <v>12717200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -8291,7 +8299,7 @@
         <v>1861280</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -8302,7 +8310,7 @@
         <v>777859</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -8313,7 +8321,7 @@
         <v>10981200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -8324,7 +8332,7 @@
         <v>9265070</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -8335,7 +8343,7 @@
         <v>9721560</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -8346,7 +8354,7 @@
         <v>1339180032</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -8357,7 +8365,7 @@
         <v>263991008</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -8368,7 +8376,7 @@
         <v>38274600</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -8379,7 +8387,7 @@
         <v>4761660</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -8390,7 +8398,7 @@
         <v>81162800</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -8401,7 +8409,7 @@
         <v>8321570</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8412,7 +8420,7 @@
         <v>59394104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -8423,7 +8431,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -8434,7 +8442,7 @@
         <v>127484000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -8445,7 +8453,7 @@
         <v>9702350</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -8456,7 +8464,7 @@
         <v>18204500</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -8467,7 +8475,7 @@
         <v>49699896</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -8478,7 +8486,7 @@
         <v>4136530</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8489,7 +8497,7 @@
         <v>6045120</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -8500,7 +8508,7 @@
         <v>6858160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -8511,7 +8519,7 @@
         <v>1949670</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -8522,7 +8530,7 @@
         <v>6082360</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -8533,7 +8541,7 @@
         <v>2233340</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -8544,7 +8552,7 @@
         <v>4731910</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -8555,7 +8563,7 @@
         <v>6374620</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -8566,7 +8574,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -8577,7 +8585,7 @@
         <v>583455</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -8588,7 +8596,7 @@
         <v>25570900</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -8599,7 +8607,7 @@
         <v>18622100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -8610,7 +8618,7 @@
         <v>31624300</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -8621,7 +8629,7 @@
         <v>18542000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -8632,7 +8640,7 @@
         <v>430835</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -8643,7 +8651,7 @@
         <v>4420180</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -8654,7 +8662,7 @@
         <v>1265140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -8665,7 +8673,7 @@
         <v>129163000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -8676,7 +8684,7 @@
         <v>3075650</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -8687,7 +8695,7 @@
         <v>628960</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -8698,7 +8706,7 @@
         <v>35739600</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -8709,7 +8717,7 @@
         <v>29668800</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -8720,7 +8728,7 @@
         <v>2533790</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -8731,7 +8739,7 @@
         <v>29305000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -8742,7 +8750,7 @@
         <v>17035900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -8753,7 +8761,7 @@
         <v>4705820</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>6217580</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>21477300</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -8786,7 +8794,7 @@
         <v>190886000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -8797,7 +8805,7 @@
         <v>5305380</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -8808,7 +8816,7 @@
         <v>4636260</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -8819,7 +8827,7 @@
         <v>197016000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -8830,7 +8838,7 @@
         <v>4098590</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -8841,7 +8849,7 @@
         <v>8251160</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -8852,7 +8860,7 @@
         <v>6811300</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -8863,7 +8871,7 @@
         <v>32165500</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -8874,7 +8882,7 @@
         <v>104918000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -8885,7 +8893,7 @@
         <v>38170700</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -8896,7 +8904,7 @@
         <v>10329500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -8907,7 +8915,7 @@
         <v>2639210</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -8918,7 +8926,7 @@
         <v>50982200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -8929,7 +8937,7 @@
         <v>4051210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -8940,7 +8948,7 @@
         <v>2083160</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -8951,7 +8959,7 @@
         <v>19679300</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -8962,7 +8970,7 @@
         <v>143990000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -8973,7 +8981,7 @@
         <v>12208400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -8984,7 +8992,7 @@
         <v>178844</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -8995,7 +9003,7 @@
         <v>109897</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -9006,7 +9014,7 @@
         <v>196440</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -9017,7 +9025,7 @@
         <v>204327</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -9028,7 +9036,7 @@
         <v>32938200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -9039,7 +9047,7 @@
         <v>15850600</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>8790570</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>7557210</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -9072,7 +9080,7 @@
         <v>5708840</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -9083,7 +9091,7 @@
         <v>5447660</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -9094,7 +9102,7 @@
         <v>2079980</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -9105,7 +9113,7 @@
         <v>611343</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -9116,7 +9124,7 @@
         <v>56717200</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -9127,7 +9135,7 @@
         <v>46354300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -9138,7 +9146,7 @@
         <v>20876900</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -9149,7 +9157,7 @@
         <v>40533300</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -9160,7 +9168,7 @@
         <v>563402</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -9171,7 +9179,7 @@
         <v>9910700</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>8476000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -9193,7 +9201,7 @@
         <v>18269900</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -9204,7 +9212,7 @@
         <v>8921340</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -9215,7 +9223,7 @@
         <v>69037504</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -9226,7 +9234,7 @@
         <v>1296310</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -9237,7 +9245,7 @@
         <v>7797690</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -9248,7 +9256,7 @@
         <v>108020</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -9259,7 +9267,7 @@
         <v>1369120</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -9270,7 +9278,7 @@
         <v>11532100</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -9281,7 +9289,7 @@
         <v>80745000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -9292,7 +9300,7 @@
         <v>5758080</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -9303,7 +9311,7 @@
         <v>42863000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -9314,7 +9322,7 @@
         <v>44222896</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -9325,7 +9333,7 @@
         <v>9400140</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -9336,7 +9344,7 @@
         <v>66181600</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -9347,7 +9355,7 @@
         <v>57310000</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -9358,7 +9366,7 @@
         <v>324459008</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -9369,7 +9377,7 @@
         <v>31910600</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -9380,7 +9388,7 @@
         <v>95540800</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -9391,7 +9399,7 @@
         <v>7550260224</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -9402,7 +9410,7 @@
         <v>28250400</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -9413,7 +9421,7 @@
         <v>17094100</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -9446,19 +9454,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71956F50-B429-4C89-AD38-F9AC10C27621}">
   <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:XFD112"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -9468,7 +9476,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9482,7 +9490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9496,7 +9504,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9510,7 +9518,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9521,7 +9529,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9532,7 +9540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9543,7 +9551,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9554,7 +9562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9562,7 +9570,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9578,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -9578,7 +9586,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -9586,7 +9594,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9594,7 +9602,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9602,7 +9610,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9610,7 +9618,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9618,7 +9626,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -9626,7 +9634,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -9634,7 +9642,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9642,7 +9650,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9658,7 +9666,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -9666,7 +9674,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -9674,7 +9682,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9690,7 +9698,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9698,7 +9706,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -9706,7 +9714,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9714,7 +9722,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -9722,7 +9730,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -9730,7 +9738,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -9738,7 +9746,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9746,7 +9754,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -9754,7 +9762,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9762,7 +9770,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9770,7 +9778,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -9778,7 +9786,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -9786,7 +9794,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -9794,7 +9802,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -9802,7 +9810,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -9810,7 +9818,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -9818,7 +9826,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -9826,7 +9834,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -9834,7 +9842,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -9842,7 +9850,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -9850,7 +9858,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -9858,7 +9866,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -9874,7 +9882,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -9882,7 +9890,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -9890,7 +9898,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -9898,7 +9906,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -9906,7 +9914,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -9914,7 +9922,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -9922,7 +9930,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -9930,7 +9938,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -9946,7 +9954,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -9954,7 +9962,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -9970,7 +9978,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9978,7 +9986,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -9986,7 +9994,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -9994,7 +10002,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -10002,7 +10010,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -10018,7 +10026,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -10026,7 +10034,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -10034,7 +10042,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -10042,7 +10050,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -10050,7 +10058,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -10066,7 +10074,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -10074,7 +10082,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -10082,7 +10090,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -10090,7 +10098,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -10106,7 +10114,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -10114,7 +10122,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -10122,7 +10130,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -10130,7 +10138,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -10138,7 +10146,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -10146,7 +10154,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -10154,7 +10162,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -10162,7 +10170,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -10170,7 +10178,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -10186,7 +10194,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -10194,7 +10202,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -10202,7 +10210,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -10210,7 +10218,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -10218,7 +10226,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -10234,7 +10242,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -10242,7 +10250,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -10250,7 +10258,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10258,7 +10266,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -10266,7 +10274,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -10274,7 +10282,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -10290,7 +10298,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -10306,7 +10314,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -10314,7 +10322,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -10322,7 +10330,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10330,7 +10338,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -10346,7 +10354,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -10354,7 +10362,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -10362,7 +10370,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10370,7 +10378,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -10378,7 +10386,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -10386,7 +10394,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -10394,7 +10402,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -10402,7 +10410,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -10410,7 +10418,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -10426,7 +10434,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -10434,7 +10442,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -10442,7 +10450,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -10450,7 +10458,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -10466,7 +10474,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -10474,7 +10482,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -10482,7 +10490,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -10490,7 +10498,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -10498,7 +10506,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -10506,7 +10514,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -10514,7 +10522,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -10522,7 +10530,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -10530,7 +10538,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -10546,7 +10554,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -10554,7 +10562,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -10562,7 +10570,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -10570,7 +10578,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -10578,7 +10586,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -10586,7 +10594,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -10594,7 +10602,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -10602,7 +10610,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -10610,7 +10618,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -10626,7 +10634,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -10634,7 +10642,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -10642,7 +10650,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -10650,7 +10658,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -10658,7 +10666,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -10666,7 +10674,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -10674,7 +10682,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10682,7 +10690,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -10690,7 +10698,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -10698,7 +10706,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -10714,7 +10722,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -10722,7 +10730,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -10730,7 +10738,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -10738,7 +10746,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -10746,7 +10754,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -10754,7 +10762,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -10762,7 +10770,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -10770,7 +10778,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -10786,7 +10794,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -10794,7 +10802,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -10802,7 +10810,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10810,7 +10818,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -10818,7 +10826,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -10826,7 +10834,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -10834,7 +10842,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -10842,7 +10850,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -10850,7 +10858,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -10858,7 +10866,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -10866,7 +10874,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -10874,7 +10882,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -10882,7 +10890,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -10890,7 +10898,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -10919,17 +10927,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{039387EA-3E19-4910-9311-18DC9BD648C6}">
   <dimension ref="A1:P232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="C76" sqref="C75:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -10946,7 +10954,7 @@
       </c>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -10981,7 +10989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -11014,7 +11022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -11049,7 +11057,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -11084,7 +11092,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -11116,7 +11124,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -11148,7 +11156,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -11180,7 +11188,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11215,7 +11223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -11244,7 +11252,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -11273,7 +11281,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -11302,7 +11310,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -11331,7 +11339,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -11360,7 +11368,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -11389,7 +11397,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11418,7 +11426,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>208</v>
       </c>
@@ -11447,7 +11455,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -11476,7 +11484,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -11505,7 +11513,7 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -11563,7 +11571,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>165</v>
       </c>
@@ -11592,7 +11600,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -11621,7 +11629,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -11650,7 +11658,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -11679,7 +11687,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -11708,7 +11716,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>175</v>
       </c>
@@ -11737,7 +11745,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -11766,7 +11774,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -11795,7 +11803,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -11824,7 +11832,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -11853,7 +11861,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>210</v>
       </c>
@@ -11882,7 +11890,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
@@ -11911,7 +11919,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
@@ -11940,7 +11948,7 @@
         <v>94.91</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>211</v>
       </c>
@@ -11969,7 +11977,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -11998,7 +12006,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>216</v>
       </c>
@@ -12027,7 +12035,7 @@
         <v>89.53</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -12056,7 +12064,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
@@ -12085,7 +12093,7 @@
         <v>74.38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -12114,7 +12122,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
@@ -12143,7 +12151,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -12172,7 +12180,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
@@ -12201,7 +12209,7 @@
         <v>136.02000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -12230,7 +12238,7 @@
         <v>124.01</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>31</v>
       </c>
@@ -12259,7 +12267,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
@@ -12288,7 +12296,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -12317,7 +12325,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -12346,7 +12354,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
@@ -12375,7 +12383,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -12404,7 +12412,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>35</v>
       </c>
@@ -12433,7 +12441,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
@@ -12462,7 +12470,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
@@ -12491,7 +12499,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -12520,7 +12528,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
@@ -12549,7 +12557,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>215</v>
       </c>
@@ -12578,7 +12586,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -12607,7 +12615,7 @@
         <v>94.94</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>40</v>
       </c>
@@ -12636,7 +12644,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
@@ -12665,7 +12673,7 @@
         <v>70.349999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -12694,7 +12702,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -12723,7 +12731,7 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
@@ -12752,7 +12760,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>45</v>
       </c>
@@ -12781,7 +12789,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>46</v>
       </c>
@@ -12810,7 +12818,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>47</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>97.36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -12868,7 +12876,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>48</v>
       </c>
@@ -12897,7 +12905,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -12926,7 +12934,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>161</v>
       </c>
@@ -12955,7 +12963,7 @@
         <v>58.22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -12984,7 +12992,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>49</v>
       </c>
@@ -13013,7 +13021,7 @@
         <v>19.12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>50</v>
       </c>
@@ -13042,7 +13050,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>51</v>
       </c>
@@ -13071,7 +13079,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -13100,7 +13108,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -13129,7 +13137,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>219</v>
       </c>
@@ -13158,7 +13166,7 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -13187,7 +13195,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>53</v>
       </c>
@@ -13216,7 +13224,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -13245,7 +13253,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>58</v>
       </c>
@@ -13274,7 +13282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -13303,7 +13311,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
@@ -13332,7 +13340,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -13361,7 +13369,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>60</v>
       </c>
@@ -13390,7 +13398,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -13419,7 +13427,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>61</v>
       </c>
@@ -13448,7 +13456,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -13477,7 +13485,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>62</v>
       </c>
@@ -13506,7 +13514,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -13535,7 +13543,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
@@ -13564,7 +13572,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>64</v>
       </c>
@@ -13593,7 +13601,7 @@
         <v>65.19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>65</v>
       </c>
@@ -13622,7 +13630,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -13651,7 +13659,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>66</v>
       </c>
@@ -13680,7 +13688,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -13709,7 +13717,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>68</v>
       </c>
@@ -13738,7 +13746,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>69</v>
       </c>
@@ -13767,7 +13775,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>70</v>
       </c>
@@ -13796,7 +13804,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>71</v>
       </c>
@@ -13825,7 +13833,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>172</v>
       </c>
@@ -13854,7 +13862,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -13883,7 +13891,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>72</v>
       </c>
@@ -13912,7 +13920,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>73</v>
       </c>
@@ -13941,7 +13949,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>76</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>77</v>
       </c>
@@ -13999,7 +14007,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -14028,7 +14036,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>78</v>
       </c>
@@ -14057,7 +14065,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>75</v>
       </c>
@@ -14086,7 +14094,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>80</v>
       </c>
@@ -14115,7 +14123,7 @@
         <v>46.34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -14144,7 +14152,7 @@
         <v>47.77</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -14173,7 +14181,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -14202,7 +14210,7 @@
         <v>47.31</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>82</v>
       </c>
@@ -14231,7 +14239,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>79</v>
       </c>
@@ -14260,7 +14268,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
@@ -14289,7 +14297,7 @@
         <v>73.41</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
@@ -14318,7 +14326,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>85</v>
       </c>
@@ -14347,7 +14355,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>86</v>
       </c>
@@ -14376,7 +14384,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>87</v>
       </c>
@@ -14405,7 +14413,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>233</v>
       </c>
@@ -14434,7 +14442,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>234</v>
       </c>
@@ -14463,7 +14471,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>89</v>
       </c>
@@ -14492,7 +14500,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>166</v>
       </c>
@@ -14521,7 +14529,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -14550,7 +14558,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>90</v>
       </c>
@@ -14579,7 +14587,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>91</v>
       </c>
@@ -14608,7 +14616,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>92</v>
       </c>
@@ -14637,7 +14645,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -14666,7 +14674,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
@@ -14695,7 +14703,7 @@
         <v>111.23</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>94</v>
       </c>
@@ -14724,7 +14732,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -14753,7 +14761,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>95</v>
       </c>
@@ -14782,7 +14790,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>96</v>
       </c>
@@ -14811,7 +14819,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>97</v>
       </c>
@@ -14840,7 +14848,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -14869,7 +14877,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -14898,7 +14906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>98</v>
       </c>
@@ -14927,7 +14935,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>168</v>
       </c>
@@ -14956,7 +14964,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>240</v>
       </c>
@@ -14985,7 +14993,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>99</v>
       </c>
@@ -15014,7 +15022,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>100</v>
       </c>
@@ -15043,12 +15051,12 @@
         <v>108.89</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -15077,7 +15085,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>241</v>
       </c>
@@ -15106,7 +15114,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>103</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>35.03</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>104</v>
       </c>
@@ -15164,7 +15172,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>242</v>
       </c>
@@ -15193,7 +15201,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>106</v>
       </c>
@@ -15222,7 +15230,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>107</v>
       </c>
@@ -15251,7 +15259,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>108</v>
       </c>
@@ -15280,7 +15288,7 @@
         <v>116.19</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>109</v>
       </c>
@@ -15309,7 +15317,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>243</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>110</v>
       </c>
@@ -15367,7 +15375,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>150</v>
       </c>
@@ -15396,7 +15404,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>111</v>
       </c>
@@ -15425,7 +15433,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>244</v>
       </c>
@@ -15454,7 +15462,7 @@
         <v>15.17</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>112</v>
       </c>
@@ -15483,7 +15491,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>114</v>
       </c>
@@ -15512,7 +15520,7 @@
         <v>55.97</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>115</v>
       </c>
@@ -15541,7 +15549,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>116</v>
       </c>
@@ -15570,7 +15578,7 @@
         <v>27.81</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>117</v>
       </c>
@@ -15599,7 +15607,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>118</v>
       </c>
@@ -15628,7 +15636,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>119</v>
       </c>
@@ -15657,7 +15665,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -15686,7 +15694,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>123</v>
       </c>
@@ -15715,7 +15723,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>173</v>
       </c>
@@ -15744,7 +15752,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>101</v>
       </c>
@@ -15773,7 +15781,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>105</v>
       </c>
@@ -15802,7 +15810,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>125</v>
       </c>
@@ -15831,7 +15839,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>246</v>
       </c>
@@ -15860,7 +15868,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>126</v>
       </c>
@@ -15889,7 +15897,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>247</v>
       </c>
@@ -15918,7 +15926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>248</v>
       </c>
@@ -15947,7 +15955,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>249</v>
       </c>
@@ -15976,7 +15984,7 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>128</v>
       </c>
@@ -16005,7 +16013,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>250</v>
       </c>
@@ -16034,7 +16042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>251</v>
       </c>
@@ -16063,7 +16071,7 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>252</v>
       </c>
@@ -16092,7 +16100,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -16121,7 +16129,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>253</v>
       </c>
@@ -16150,7 +16158,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>130</v>
       </c>
@@ -16179,7 +16187,7 @@
         <v>74.48</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>131</v>
       </c>
@@ -16208,7 +16216,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>132</v>
       </c>
@@ -16237,7 +16245,7 @@
         <v>92.76</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>167</v>
       </c>
@@ -16266,7 +16274,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>254</v>
       </c>
@@ -16295,7 +16303,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>133</v>
       </c>
@@ -16324,7 +16332,7 @@
         <v>108.68</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>136</v>
       </c>
@@ -16353,7 +16361,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -16382,7 +16390,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>135</v>
       </c>
@@ -16411,7 +16419,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>134</v>
       </c>
@@ -16440,7 +16448,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -16469,7 +16477,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>256</v>
       </c>
@@ -16498,7 +16506,7 @@
         <v>155.18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>137</v>
       </c>
@@ -16527,7 +16535,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>257</v>
       </c>
@@ -16556,7 +16564,7 @@
         <v>152.33000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>138</v>
       </c>
@@ -16585,7 +16593,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>29</v>
       </c>
@@ -16614,12 +16622,12 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>169</v>
       </c>
@@ -16648,7 +16656,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>139</v>
       </c>
@@ -16677,7 +16685,7 @@
         <v>37.369999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>142</v>
       </c>
@@ -16706,7 +16714,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>143</v>
       </c>
@@ -16735,7 +16743,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>258</v>
       </c>
@@ -16764,7 +16772,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>259</v>
       </c>
@@ -16793,7 +16801,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>140</v>
       </c>
@@ -16822,7 +16830,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>146</v>
       </c>
@@ -16851,7 +16859,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>121</v>
       </c>
@@ -16880,7 +16888,7 @@
         <v>48.13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>147</v>
       </c>
@@ -16909,7 +16917,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>148</v>
       </c>
@@ -16938,7 +16946,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>149</v>
       </c>
@@ -16967,7 +16975,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>151</v>
       </c>
@@ -16996,7 +17004,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>152</v>
       </c>
@@ -17025,7 +17033,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>145</v>
       </c>
@@ -17054,7 +17062,7 @@
         <v>51.73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -17083,7 +17091,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -17112,7 +17120,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>154</v>
       </c>
@@ -17141,7 +17149,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>156</v>
       </c>
@@ -17170,7 +17178,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>153</v>
       </c>
@@ -17199,7 +17207,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>155</v>
       </c>
@@ -17228,7 +17236,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>279</v>
       </c>
@@ -17257,7 +17265,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>262</v>
       </c>
@@ -17286,7 +17294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -17315,7 +17323,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>159</v>
       </c>
@@ -17344,7 +17352,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>265</v>
       </c>
@@ -17373,7 +17381,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>266</v>
       </c>
@@ -17402,7 +17410,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -17431,7 +17439,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>268</v>
       </c>
@@ -17460,7 +17468,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>269</v>
       </c>
@@ -17489,7 +17497,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>270</v>
       </c>
@@ -17518,7 +17526,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -17547,7 +17555,7 @@
         <v>86.12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>163</v>
       </c>
@@ -17576,7 +17584,7 @@
         <v>69.38</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>164</v>
       </c>
@@ -17605,7 +17613,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>124</v>
       </c>
@@ -17656,12 +17664,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>177</v>
       </c>
@@ -17671,7 +17679,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -17685,7 +17693,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -17699,7 +17707,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1951</v>
       </c>
@@ -17713,7 +17721,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1952</v>
       </c>
@@ -17724,7 +17732,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1953</v>
       </c>
@@ -17735,7 +17743,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1954</v>
       </c>
@@ -17746,7 +17754,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1955</v>
       </c>
@@ -17757,7 +17765,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1956</v>
       </c>
@@ -17765,7 +17773,7 @@
         <v>2822443000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1957</v>
       </c>
@@ -17773,7 +17781,7 @@
         <v>2873306000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -17781,7 +17789,7 @@
         <v>2925687000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1959</v>
       </c>
@@ -17789,7 +17797,7 @@
         <v>2979576000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1960</v>
       </c>
@@ -17797,7 +17805,7 @@
         <v>3034950000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1961</v>
       </c>
@@ -17805,7 +17813,7 @@
         <v>3091844000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1962</v>
       </c>
@@ -17813,7 +17821,7 @@
         <v>3150421000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1963</v>
       </c>
@@ -17821,7 +17829,7 @@
         <v>3211001000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1964</v>
       </c>
@@ -17829,7 +17837,7 @@
         <v>3273978000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1965</v>
       </c>
@@ -17837,7 +17845,7 @@
         <v>3339584000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1966</v>
       </c>
@@ -17845,7 +17853,7 @@
         <v>3407923000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1967</v>
       </c>
@@ -17853,7 +17861,7 @@
         <v>3478770000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1968</v>
       </c>
@@ -17861,7 +17869,7 @@
         <v>3551599000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1969</v>
       </c>
@@ -17869,7 +17877,7 @@
         <v>3625681000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1970</v>
       </c>
@@ -17877,7 +17885,7 @@
         <v>3700437000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1971</v>
       </c>
@@ -17885,7 +17893,7 @@
         <v>3775760000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1972</v>
       </c>
@@ -17893,7 +17901,7 @@
         <v>3851651000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1973</v>
       </c>
@@ -17901,7 +17909,7 @@
         <v>3927781000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1974</v>
       </c>
@@ -17909,7 +17917,7 @@
         <v>4003794000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1975</v>
       </c>
@@ -17917,7 +17925,7 @@
         <v>4079480000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1976</v>
       </c>
@@ -17925,7 +17933,7 @@
         <v>4154667000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1977</v>
       </c>
@@ -17933,7 +17941,7 @@
         <v>4229506000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1978</v>
       </c>
@@ -17941,7 +17949,7 @@
         <v>4304534000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1979</v>
       </c>
@@ -17949,7 +17957,7 @@
         <v>4380506000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1980</v>
       </c>
@@ -17957,7 +17965,7 @@
         <v>4458003000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1981</v>
       </c>
@@ -17965,7 +17973,7 @@
         <v>4536997000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1982</v>
       </c>
@@ -17973,7 +17981,7 @@
         <v>4617387000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1983</v>
       </c>
@@ -17981,7 +17989,7 @@
         <v>4699569000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1984</v>
       </c>
@@ -17989,7 +17997,7 @@
         <v>4784012000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1985</v>
       </c>
@@ -17997,7 +18005,7 @@
         <v>4870922000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1986</v>
       </c>
@@ -18005,7 +18013,7 @@
         <v>4960568000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1987</v>
       </c>
@@ -18013,7 +18021,7 @@
         <v>5052522000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1988</v>
       </c>
@@ -18021,7 +18029,7 @@
         <v>5145426000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1989</v>
       </c>
@@ -18029,7 +18037,7 @@
         <v>5237441000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1990</v>
       </c>
@@ -18037,7 +18045,7 @@
         <v>5327231000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1991</v>
       </c>
@@ -18045,7 +18053,7 @@
         <v>5414289000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1992</v>
       </c>
@@ -18053,7 +18061,7 @@
         <v>5498920000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -18061,7 +18069,7 @@
         <v>5581598000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1994</v>
       </c>
@@ -18069,7 +18077,7 @@
         <v>5663150000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1995</v>
       </c>
@@ -18077,7 +18085,7 @@
         <v>5744213000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1996</v>
       </c>
@@ -18085,7 +18093,7 @@
         <v>5824892000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1997</v>
       </c>
@@ -18093,7 +18101,7 @@
         <v>5905046000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1998</v>
       </c>
@@ -18101,7 +18109,7 @@
         <v>5984794000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1999</v>
       </c>
@@ -18109,7 +18117,7 @@
         <v>6064239000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -18117,7 +18125,7 @@
         <v>6143494000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -18125,7 +18133,7 @@
         <v>6222627000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -18133,7 +18141,7 @@
         <v>6301773000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -18141,7 +18149,7 @@
         <v>6381185000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -18149,7 +18157,7 @@
         <v>6461159000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -18157,7 +18165,7 @@
         <v>6541907000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -18165,7 +18173,7 @@
         <v>6623518000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2007</v>
       </c>
@@ -18173,7 +18181,7 @@
         <v>6705947000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2008</v>
       </c>
@@ -18181,7 +18189,7 @@
         <v>6789089000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2009</v>
       </c>
@@ -18189,7 +18197,7 @@
         <v>6872767000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -18197,7 +18205,7 @@
         <v>6956824000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -18205,7 +18213,7 @@
         <v>7041194000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -18213,7 +18221,7 @@
         <v>7125828000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -18221,7 +18229,7 @@
         <v>7210582000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -18229,7 +18237,7 @@
         <v>7295291000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -18237,7 +18245,7 @@
         <v>7379797000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -18245,7 +18253,7 @@
         <v>7464022000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -18253,7 +18261,7 @@
         <v>7547859000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -18261,7 +18269,7 @@
         <v>7631091000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -18269,7 +18277,7 @@
         <v>7713468000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -18277,7 +18285,7 @@
         <v>7794799000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -18285,7 +18293,7 @@
         <v>7874966000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -18293,7 +18301,7 @@
         <v>7953953000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -18301,7 +18309,7 @@
         <v>8031800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2024</v>
       </c>
@@ -18309,7 +18317,7 @@
         <v>8108605000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2025</v>
       </c>
@@ -18317,7 +18325,7 @@
         <v>8184437000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2026</v>
       </c>
@@ -18325,7 +18333,7 @@
         <v>8259277000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2027</v>
       </c>
@@ -18333,7 +18341,7 @@
         <v>8333078000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2028</v>
       </c>
@@ -18341,7 +18349,7 @@
         <v>8405863000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2029</v>
       </c>
@@ -18349,7 +18357,7 @@
         <v>8477661000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2030</v>
       </c>
@@ -18357,7 +18365,7 @@
         <v>8548487000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2031</v>
       </c>
@@ -18365,7 +18373,7 @@
         <v>8618349000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2032</v>
       </c>
@@ -18373,7 +18381,7 @@
         <v>8687228000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2033</v>
       </c>
@@ -18381,7 +18389,7 @@
         <v>8755084000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2034</v>
       </c>
@@ -18389,7 +18397,7 @@
         <v>8821863000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2035</v>
       </c>
@@ -18397,7 +18405,7 @@
         <v>8887524000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2036</v>
       </c>
@@ -18405,7 +18413,7 @@
         <v>8952049000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2037</v>
       </c>
@@ -18413,7 +18421,7 @@
         <v>9015438000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2038</v>
       </c>
@@ -18421,7 +18429,7 @@
         <v>9077694000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2039</v>
       </c>
@@ -18429,7 +18437,7 @@
         <v>9138829000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2040</v>
       </c>
@@ -18437,7 +18445,7 @@
         <v>9198847000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2041</v>
       </c>
@@ -18445,7 +18453,7 @@
         <v>9257745000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2042</v>
       </c>
@@ -18453,7 +18461,7 @@
         <v>9315508000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2043</v>
       </c>
@@ -18461,7 +18469,7 @@
         <v>9372118000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2044</v>
       </c>
@@ -18469,7 +18477,7 @@
         <v>9427555000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2045</v>
       </c>
@@ -18477,7 +18485,7 @@
         <v>9481803000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2046</v>
       </c>
@@ -18485,7 +18493,7 @@
         <v>9534855000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2047</v>
       </c>
@@ -18493,7 +18501,7 @@
         <v>9586708000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2048</v>
       </c>
@@ -18501,7 +18509,7 @@
         <v>9637357000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2049</v>
       </c>
@@ -18509,7 +18517,7 @@
         <v>9686800000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2050</v>
       </c>
@@ -18517,7 +18525,7 @@
         <v>9735034000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2051</v>
       </c>
@@ -18525,7 +18533,7 @@
         <v>9782062000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2052</v>
       </c>
@@ -18533,7 +18541,7 @@
         <v>9827885000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2053</v>
       </c>
@@ -18541,7 +18549,7 @@
         <v>9872502000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2054</v>
       </c>
@@ -18549,7 +18557,7 @@
         <v>9915905000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2055</v>
       </c>
@@ -18557,7 +18565,7 @@
         <v>9958099000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2056</v>
       </c>
@@ -18565,7 +18573,7 @@
         <v>9999085000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2057</v>
       </c>
@@ -18573,7 +18581,7 @@
         <v>10038881000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2058</v>
       </c>
@@ -18581,7 +18589,7 @@
         <v>10077518000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2059</v>
       </c>
@@ -18589,7 +18597,7 @@
         <v>10115036000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2060</v>
       </c>
@@ -18597,7 +18605,7 @@
         <v>10151470000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2061</v>
       </c>
@@ -18605,7 +18613,7 @@
         <v>10186837000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2062</v>
       </c>
@@ -18613,7 +18621,7 @@
         <v>10221149000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2063</v>
       </c>
@@ -18621,7 +18629,7 @@
         <v>10254419000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2064</v>
       </c>
@@ -18629,7 +18637,7 @@
         <v>10286658000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2065</v>
       </c>
@@ -18637,7 +18645,7 @@
         <v>10317879000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2066</v>
       </c>
@@ -18645,7 +18653,7 @@
         <v>10348098000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2067</v>
       </c>
@@ -18653,7 +18661,7 @@
         <v>10377331000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2068</v>
       </c>
@@ -18661,7 +18669,7 @@
         <v>10405591000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2069</v>
       </c>
@@ -18669,7 +18677,7 @@
         <v>10432889000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2070</v>
       </c>
@@ -18677,7 +18685,7 @@
         <v>10459240000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2071</v>
       </c>
@@ -18685,7 +18693,7 @@
         <v>10484655000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2072</v>
       </c>
@@ -18693,7 +18701,7 @@
         <v>10509150000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2073</v>
       </c>
@@ -18701,7 +18709,7 @@
         <v>10532743000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2074</v>
       </c>
@@ -18709,7 +18717,7 @@
         <v>10555450000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2075</v>
       </c>
@@ -18717,7 +18725,7 @@
         <v>10577288000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2076</v>
       </c>
@@ -18725,7 +18733,7 @@
         <v>10598274000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2077</v>
       </c>
@@ -18733,7 +18741,7 @@
         <v>10618421000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2078</v>
       </c>
@@ -18741,7 +18749,7 @@
         <v>10637737000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2079</v>
       </c>
@@ -18749,7 +18757,7 @@
         <v>10656228000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2080</v>
       </c>
@@ -18757,7 +18765,7 @@
         <v>10673904000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2081</v>
       </c>
@@ -18765,7 +18773,7 @@
         <v>10690773000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2082</v>
       </c>
@@ -18773,7 +18781,7 @@
         <v>10706852000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2083</v>
       </c>
@@ -18781,7 +18789,7 @@
         <v>10722171000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2084</v>
       </c>
@@ -18789,7 +18797,7 @@
         <v>10736765000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2085</v>
       </c>
@@ -18797,7 +18805,7 @@
         <v>10750662000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2086</v>
       </c>
@@ -18805,7 +18813,7 @@
         <v>10763874000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2087</v>
       </c>
@@ -18813,7 +18821,7 @@
         <v>10776402000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2088</v>
       </c>
@@ -18821,7 +18829,7 @@
         <v>10788249000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2089</v>
       </c>
@@ -18829,7 +18837,7 @@
         <v>10799413000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2090</v>
       </c>
@@ -18837,7 +18845,7 @@
         <v>10809892000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2091</v>
       </c>
@@ -18845,7 +18853,7 @@
         <v>10819683000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2092</v>
       </c>
@@ -18853,7 +18861,7 @@
         <v>10828781000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2093</v>
       </c>
@@ -18861,7 +18869,7 @@
         <v>10837182000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2094</v>
       </c>
@@ -18869,7 +18877,7 @@
         <v>10844879000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2095</v>
       </c>
@@ -18877,7 +18885,7 @@
         <v>10851860000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2096</v>
       </c>
@@ -18885,7 +18893,7 @@
         <v>10858112000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2097</v>
       </c>
@@ -18893,7 +18901,7 @@
         <v>10863615000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2098</v>
       </c>
@@ -18901,7 +18909,7 @@
         <v>10868348000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2099</v>
       </c>
@@ -18909,7 +18917,7 @@
         <v>10872284000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2100</v>
       </c>
@@ -19127,18 +19135,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19161,6 +19169,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -19175,12 +19191,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
+++ b/chapters/ch02-Boundaries/datasets/EFvsHDI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\MCBook2021\chapters\ch02-Boundaries\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch02-Boundaries/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309CC32-835C-453A-954A-CA351750DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981424B-ECBE-8F43-B1B8-DE938686FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="296">
   <si>
     <t>Country Name</t>
   </si>
@@ -946,13 +946,16 @@
   </si>
   <si>
     <t>Latin Am.</t>
+  </si>
+  <si>
+    <t>Oceania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1091,6 +1094,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1481,7 +1491,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1503,6 +1513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4407,19 +4418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D9207-0930-4D6D-87FA-8D2C98238D07}">
   <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="str" cm="1">
         <f t="array" ref="A1:B175">'Footprint Network'!A2:B176</f>
         <v>Country Name</v>
@@ -4439,7 +4450,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <v>Afghanistan</v>
       </c>
@@ -4456,7 +4467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <v>Albania</v>
       </c>
@@ -4473,7 +4484,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>Algeria</v>
       </c>
@@ -4490,7 +4501,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>Angola</v>
       </c>
@@ -4508,7 +4519,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <v>Antigua and Barbuda</v>
       </c>
@@ -4526,7 +4537,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <v>Argentina</v>
       </c>
@@ -4543,7 +4554,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>Armenia</v>
       </c>
@@ -4560,7 +4571,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>Australia</v>
       </c>
@@ -4575,10 +4586,10 @@
         <v>24370179</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>Austria</v>
       </c>
@@ -4595,7 +4606,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <v>Azerbaijan</v>
       </c>
@@ -4612,7 +4623,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <v>Bahamas</v>
       </c>
@@ -4629,7 +4640,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <v>Bahrain</v>
       </c>
@@ -4646,7 +4657,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <v>Bangladesh</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <v>Barbados</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <v>Belarus</v>
       </c>
@@ -4697,7 +4708,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <v>Belgium</v>
       </c>
@@ -4714,7 +4725,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>Belize</v>
       </c>
@@ -4731,7 +4742,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>Benin</v>
       </c>
@@ -4748,7 +4759,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <v>Bhutan</v>
       </c>
@@ -4766,7 +4777,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>Bolivarian Republic of Venezuela</v>
       </c>
@@ -4783,7 +4794,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <v>Bolivia</v>
       </c>
@@ -4800,7 +4811,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>Bosnia and Herzegovina</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <v>Botswana</v>
       </c>
@@ -4834,7 +4845,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>Brazil</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <v>Brunei Darussalam</v>
       </c>
@@ -4868,7 +4879,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <v>Bulgaria</v>
       </c>
@@ -4885,7 +4896,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <v>Burkina Faso</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <v>Burundi</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <v>CÃ´te d'Ivoire</v>
       </c>
@@ -4937,7 +4948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <v>Cabo Verde</v>
       </c>
@@ -4954,7 +4965,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <v>Cambodia</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <v>Cameroon</v>
       </c>
@@ -4988,7 +4999,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <v>Canada</v>
       </c>
@@ -5005,7 +5016,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <v>Central African Republic</v>
       </c>
@@ -5023,7 +5034,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <v>Chad</v>
       </c>
@@ -5040,7 +5051,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <v>Chile</v>
       </c>
@@ -5057,7 +5068,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <v>China</v>
       </c>
@@ -5074,7 +5085,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <v>Colombia</v>
       </c>
@@ -5091,7 +5102,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <v>Comoros</v>
       </c>
@@ -5108,7 +5119,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <v>Congo</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <v>Costa Rica</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <v>Croatia</v>
       </c>
@@ -5160,7 +5171,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <v>Cuba</v>
       </c>
@@ -5177,7 +5188,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <v>Cyprus</v>
       </c>
@@ -5195,7 +5206,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <v>Czech Republic</v>
       </c>
@@ -5212,7 +5223,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <v>Democratic Republic of Congo</v>
       </c>
@@ -5229,7 +5240,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <v>Denmark</v>
       </c>
@@ -5246,7 +5257,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <v>Djibouti</v>
       </c>
@@ -5263,7 +5274,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <v>Dominica</v>
       </c>
@@ -5280,7 +5291,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <v>Dominican Republic</v>
       </c>
@@ -5297,7 +5308,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <v>Ecuador</v>
       </c>
@@ -5314,7 +5325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <v>Egypt</v>
       </c>
@@ -5331,7 +5342,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <v>El Salvador</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <v>Equatorial Guinea</v>
       </c>
@@ -5365,7 +5376,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <v>Eritrea</v>
       </c>
@@ -5382,7 +5393,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <v>Estonia</v>
       </c>
@@ -5399,7 +5410,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <v>Eswatini</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <v>Ethiopia</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <v>Fiji</v>
       </c>
@@ -5448,10 +5459,10 @@
         <v>920176</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <v>Finland</v>
       </c>
@@ -5468,7 +5479,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <v>France</v>
       </c>
@@ -5485,7 +5496,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <v>Gabon</v>
       </c>
@@ -5503,7 +5514,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <v>Gambia</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <v>Georgia</v>
       </c>
@@ -5538,7 +5549,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <v>Germany</v>
       </c>
@@ -5555,7 +5566,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <v>Ghana</v>
       </c>
@@ -5572,7 +5583,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <v>Greece</v>
       </c>
@@ -5590,7 +5601,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <v>Grenada</v>
       </c>
@@ -5608,7 +5619,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <v>Guatemala</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <v>Guinea</v>
       </c>
@@ -5644,7 +5655,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <v>Guinea-Bissau</v>
       </c>
@@ -5661,7 +5672,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <v>Guyana</v>
       </c>
@@ -5678,7 +5689,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <v>Haiti</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <v>Honduras</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <v>Hungary</v>
       </c>
@@ -5730,7 +5741,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <v>India</v>
       </c>
@@ -5748,7 +5759,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <v>Indonesia</v>
       </c>
@@ -5765,7 +5776,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <v>Iraq</v>
       </c>
@@ -5782,7 +5793,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <v>Ireland</v>
       </c>
@@ -5799,7 +5810,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <v>Islamic Republic of Iran</v>
       </c>
@@ -5816,7 +5827,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <v>Israel</v>
       </c>
@@ -5834,7 +5845,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <v>Italy</v>
       </c>
@@ -5851,7 +5862,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <v>Jamaica</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <v>Japan</v>
       </c>
@@ -5885,7 +5896,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <v>Jordan</v>
       </c>
@@ -5903,7 +5914,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <v>Kazakhstan</v>
       </c>
@@ -5920,7 +5931,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <v>Kenya</v>
       </c>
@@ -5937,7 +5948,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <v>Kuwait</v>
       </c>
@@ -5955,7 +5966,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <v>Kyrgyzstan</v>
       </c>
@@ -5972,7 +5983,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <v>Lao People's Democratic Republic</v>
       </c>
@@ -5989,7 +6000,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <v>Latvia</v>
       </c>
@@ -6006,7 +6017,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <v>Lebanon</v>
       </c>
@@ -6023,7 +6034,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <v>Lesotho</v>
       </c>
@@ -6040,7 +6051,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <v>Liberia</v>
       </c>
@@ -6057,7 +6068,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <v>Libyan Arab Jamahiriya</v>
       </c>
@@ -6074,7 +6085,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <v>Lithuania</v>
       </c>
@@ -6092,7 +6103,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <v>Luxembourg</v>
       </c>
@@ -6109,7 +6120,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <v>Madagascar</v>
       </c>
@@ -6127,7 +6138,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <v>Malawi</v>
       </c>
@@ -6144,7 +6155,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <v>Malaysia</v>
       </c>
@@ -6161,7 +6172,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <v>Mali</v>
       </c>
@@ -6179,7 +6190,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <v>Malta</v>
       </c>
@@ -6196,7 +6207,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <v>Mauritania</v>
       </c>
@@ -6214,7 +6225,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <v>Mauritius</v>
       </c>
@@ -6231,7 +6242,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <v>Mexico</v>
       </c>
@@ -6248,7 +6259,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <v>Mongolia</v>
       </c>
@@ -6266,7 +6277,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <v>Montenegro</v>
       </c>
@@ -6283,7 +6294,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <v>Morocco</v>
       </c>
@@ -6301,7 +6312,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <v>Mozambique</v>
       </c>
@@ -6318,7 +6329,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <v>Namibia</v>
       </c>
@@ -6336,7 +6347,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <v>Nepal</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <v>Netherlands</v>
       </c>
@@ -6371,7 +6382,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <v>New Zealand</v>
       </c>
@@ -6385,11 +6396,11 @@
         <f t="array" ref="D114:D117">'IDB (country pop)'!C148:C151</f>
         <v>4700525</v>
       </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <v>Nicaragua</v>
       </c>
@@ -6406,7 +6417,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <v>Niger</v>
       </c>
@@ -6423,7 +6434,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <v>Nigeria</v>
       </c>
@@ -6440,7 +6451,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <v>Norway</v>
       </c>
@@ -6458,7 +6469,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <v>Oman</v>
       </c>
@@ -6475,7 +6486,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
         <v>Pakistan</v>
       </c>
@@ -6492,7 +6503,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
         <v>Panama</v>
       </c>
@@ -6510,7 +6521,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <v>Papua New Guinea</v>
       </c>
@@ -6523,11 +6534,11 @@
       <c r="D122">
         <v>6919792</v>
       </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <v>Paraguay</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <v>Peru</v>
       </c>
@@ -6561,7 +6572,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <v>Philippines</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <v>Poland</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <v>Portugal</v>
       </c>
@@ -6612,7 +6623,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <v>Qatar</v>
       </c>
@@ -6630,7 +6641,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
         <v>Republic of Korea</v>
       </c>
@@ -6647,7 +6658,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <v>Republic of Moldova</v>
       </c>
@@ -6664,7 +6675,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <v>Republic of North Macedonia</v>
       </c>
@@ -6681,7 +6692,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <v>Romania</v>
       </c>
@@ -6698,7 +6709,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <v>Russian Federation</v>
       </c>
@@ -6715,7 +6726,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <v>Rwanda</v>
       </c>
@@ -6732,7 +6743,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <v>Saint Lucia</v>
       </c>
@@ -6750,7 +6761,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
         <v>Saint Vincent and Grenadines</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <v>Samoa</v>
       </c>
@@ -6781,11 +6792,11 @@
       <c r="D137">
         <v>200056</v>
       </c>
-      <c r="E137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <v>Sao Tome and Principe</v>
       </c>
@@ -6803,7 +6814,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <v>Saudi Arabia</v>
       </c>
@@ -6820,7 +6831,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <v>Senegal</v>
       </c>
@@ -6837,7 +6848,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <v>Serbia</v>
       </c>
@@ -6854,7 +6865,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <v>Sierra Leone</v>
       </c>
@@ -6872,7 +6883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <v>Singapore</v>
       </c>
@@ -6889,7 +6900,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
         <v>Slovakia</v>
       </c>
@@ -6907,7 +6918,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <v>Slovenia</v>
       </c>
@@ -6924,7 +6935,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <v>Solomon Islands</v>
       </c>
@@ -6937,11 +6948,11 @@
       <c r="D146">
         <v>641944</v>
       </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <v>South Africa</v>
       </c>
@@ -6959,7 +6970,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <v>Spain</v>
       </c>
@@ -6977,7 +6988,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <v>Sri Lanka</v>
       </c>
@@ -6994,7 +7005,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <v>Sudan</v>
       </c>
@@ -7012,7 +7023,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <v>Suriname</v>
       </c>
@@ -7029,7 +7040,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <v>Sweden</v>
       </c>
@@ -7046,7 +7057,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <v>Switzerland</v>
       </c>
@@ -7063,7 +7074,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <v>Syrian Arab Republic</v>
       </c>
@@ -7080,7 +7091,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <v>Tajikistan</v>
       </c>
@@ -7098,7 +7109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <v>Thailand</v>
       </c>
@@ -7115,7 +7126,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <v>Timor-Leste</v>
       </c>
@@ -7132,7 +7143,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <v>Togo</v>
       </c>
@@ -7149,7 +7160,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <v>Tonga</v>
       </c>
@@ -7162,11 +7173,11 @@
       <c r="D159">
         <v>106428</v>
       </c>
-      <c r="E159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <v>Trinidad and Tobago</v>
       </c>
@@ -7183,7 +7194,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="str">
         <v>Tunisia</v>
       </c>
@@ -7200,7 +7211,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <v>Turkey</v>
       </c>
@@ -7217,7 +7228,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <v>Turkmenistan</v>
       </c>
@@ -7234,7 +7245,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <v>Uganda</v>
       </c>
@@ -7252,7 +7263,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <v>Ukraine</v>
       </c>
@@ -7269,7 +7280,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <v>United Arab Emirates</v>
       </c>
@@ -7286,7 +7297,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <v>United Kingdom</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="str">
         <v>United Rpublic of Tanzania</v>
       </c>
@@ -7320,7 +7331,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="str">
         <v>United States of America</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <v>Uzbekistan</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <v>Viet Nam</v>
       </c>
@@ -7373,7 +7384,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <v>World</v>
       </c>
@@ -7391,7 +7402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <v>Yemen</v>
       </c>
@@ -7409,7 +7420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <v>Zambia</v>
       </c>
@@ -7426,7 +7437,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <v>Zimbabwe</v>
       </c>
@@ -7457,16 +7468,16 @@
       <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -7477,7 +7488,7 @@
       </c>
       <c r="F1" s="12"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7494,7 +7505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7511,7 +7522,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7528,7 +7539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -7542,7 +7553,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7556,7 +7567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7570,7 +7581,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -7584,7 +7595,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -7595,7 +7606,7 @@
         <v>2930450</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7606,7 +7617,7 @@
         <v>24450600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7617,7 +7628,7 @@
         <v>8735450</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -7628,7 +7639,7 @@
         <v>9827590</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7639,7 +7650,7 @@
         <v>395361</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7650,7 +7661,7 @@
         <v>1492580</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7672,7 @@
         <v>164670000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7672,7 +7683,7 @@
         <v>285719</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7683,7 +7694,7 @@
         <v>9468340</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -7694,7 +7705,7 @@
         <v>11429300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -7705,7 +7716,7 @@
         <v>374681</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7716,7 +7727,7 @@
         <v>11175700</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -7727,7 +7738,7 @@
         <v>807610</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -7738,7 +7749,7 @@
         <v>31977100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -7749,7 +7760,7 @@
         <v>11051600</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -7760,7 +7771,7 @@
         <v>3507020</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7771,7 +7782,7 @@
         <v>2291660</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -7782,7 +7793,7 @@
         <v>209288000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7793,7 +7804,7 @@
         <v>428697</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7804,7 +7815,7 @@
         <v>7084570</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -7815,7 +7826,7 @@
         <v>19193400</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -7826,7 +7837,7 @@
         <v>10864200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>24294800</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -7848,7 +7859,7 @@
         <v>546388</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -7859,7 +7870,7 @@
         <v>16005400</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -7870,7 +7881,7 @@
         <v>24053700</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7881,7 +7892,7 @@
         <v>36624200</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -7892,7 +7903,7 @@
         <v>4659080</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -7903,7 +7914,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -7914,7 +7925,7 @@
         <v>18054700</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -7925,7 +7936,7 @@
         <v>1441129984</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -7936,7 +7947,7 @@
         <v>49065600</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -7947,7 +7958,7 @@
         <v>813912</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>5260750</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -7969,7 +7980,7 @@
         <v>4905770</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -7980,7 +7991,7 @@
         <v>4189350</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -7991,7 +8002,7 @@
         <v>11484600</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>1179550</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -8013,7 +8024,7 @@
         <v>10618300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -8024,7 +8035,7 @@
         <v>81340000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -8035,7 +8046,7 @@
         <v>5733550</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -8046,7 +8057,7 @@
         <v>956985</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -8057,7 +8068,7 @@
         <v>73925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -8068,7 +8079,7 @@
         <v>10767000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -8079,7 +8090,7 @@
         <v>16624900</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -8090,7 +8101,7 @@
         <v>97553104</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -8101,7 +8112,7 @@
         <v>6377850</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -8112,7 +8123,7 @@
         <v>1267690</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -8123,7 +8134,7 @@
         <v>5068830</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -8134,7 +8145,7 @@
         <v>1309630</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>1367250</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -8156,7 +8167,7 @@
         <v>104957000</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -8167,7 +8178,7 @@
         <v>905502</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -8178,7 +8189,7 @@
         <v>5523230</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -8189,7 +8200,7 @@
         <v>65018200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -8200,7 +8211,7 @@
         <v>2025140</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -8211,7 +8222,7 @@
         <v>2100570</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -8222,7 +8233,7 @@
         <v>3912060</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -8233,7 +8244,7 @@
         <v>82114200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -8244,7 +8255,7 @@
         <v>28833600</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -8255,7 +8266,7 @@
         <v>11159800</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -8266,7 +8277,7 @@
         <v>107825</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -8277,7 +8288,7 @@
         <v>16913500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -8288,7 +8299,7 @@
         <v>12717200</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -8299,7 +8310,7 @@
         <v>1861280</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -8310,7 +8321,7 @@
         <v>777859</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -8321,7 +8332,7 @@
         <v>10981200</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -8332,7 +8343,7 @@
         <v>9265070</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>9721560</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -8354,7 +8365,7 @@
         <v>1339180032</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -8365,7 +8376,7 @@
         <v>263991008</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -8376,7 +8387,7 @@
         <v>38274600</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -8387,7 +8398,7 @@
         <v>4761660</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -8398,7 +8409,7 @@
         <v>81162800</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -8409,7 +8420,7 @@
         <v>8321570</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8420,7 +8431,7 @@
         <v>59394104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -8431,7 +8442,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -8442,7 +8453,7 @@
         <v>127484000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -8453,7 +8464,7 @@
         <v>9702350</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -8464,7 +8475,7 @@
         <v>18204500</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -8475,7 +8486,7 @@
         <v>49699896</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -8486,7 +8497,7 @@
         <v>4136530</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8497,7 +8508,7 @@
         <v>6045120</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -8508,7 +8519,7 @@
         <v>6858160</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -8519,7 +8530,7 @@
         <v>1949670</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -8530,7 +8541,7 @@
         <v>6082360</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -8541,7 +8552,7 @@
         <v>2233340</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -8552,7 +8563,7 @@
         <v>4731910</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -8563,7 +8574,7 @@
         <v>6374620</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -8574,7 +8585,7 @@
         <v>2890300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -8585,7 +8596,7 @@
         <v>583455</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -8596,7 +8607,7 @@
         <v>25570900</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -8607,7 +8618,7 @@
         <v>18622100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>31624300</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -8629,7 +8640,7 @@
         <v>18542000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -8640,7 +8651,7 @@
         <v>430835</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -8651,7 +8662,7 @@
         <v>4420180</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -8662,7 +8673,7 @@
         <v>1265140</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -8673,7 +8684,7 @@
         <v>129163000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -8684,7 +8695,7 @@
         <v>3075650</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -8695,7 +8706,7 @@
         <v>628960</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -8706,7 +8717,7 @@
         <v>35739600</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -8717,7 +8728,7 @@
         <v>29668800</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>2533790</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -8739,7 +8750,7 @@
         <v>29305000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -8750,7 +8761,7 @@
         <v>17035900</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -8761,7 +8772,7 @@
         <v>4705820</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -8772,7 +8783,7 @@
         <v>6217580</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -8783,7 +8794,7 @@
         <v>21477300</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -8794,7 +8805,7 @@
         <v>190886000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -8805,7 +8816,7 @@
         <v>5305380</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -8816,7 +8827,7 @@
         <v>4636260</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -8827,7 +8838,7 @@
         <v>197016000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -8838,7 +8849,7 @@
         <v>4098590</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -8849,7 +8860,7 @@
         <v>8251160</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -8860,7 +8871,7 @@
         <v>6811300</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -8871,7 +8882,7 @@
         <v>32165500</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -8882,7 +8893,7 @@
         <v>104918000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>38170700</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -8904,7 +8915,7 @@
         <v>10329500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -8915,7 +8926,7 @@
         <v>2639210</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -8926,7 +8937,7 @@
         <v>50982200</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -8937,7 +8948,7 @@
         <v>4051210</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>2083160</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -8959,7 +8970,7 @@
         <v>19679300</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -8970,7 +8981,7 @@
         <v>143990000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -8981,7 +8992,7 @@
         <v>12208400</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -8992,7 +9003,7 @@
         <v>178844</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -9003,7 +9014,7 @@
         <v>109897</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -9014,7 +9025,7 @@
         <v>196440</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -9025,7 +9036,7 @@
         <v>204327</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -9036,7 +9047,7 @@
         <v>32938200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -9047,7 +9058,7 @@
         <v>15850600</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -9058,7 +9069,7 @@
         <v>8790570</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -9069,7 +9080,7 @@
         <v>7557210</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -9080,7 +9091,7 @@
         <v>5708840</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -9091,7 +9102,7 @@
         <v>5447660</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -9102,7 +9113,7 @@
         <v>2079980</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -9113,7 +9124,7 @@
         <v>611343</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -9124,7 +9135,7 @@
         <v>56717200</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -9135,7 +9146,7 @@
         <v>46354300</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -9146,7 +9157,7 @@
         <v>20876900</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -9157,7 +9168,7 @@
         <v>40533300</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -9168,7 +9179,7 @@
         <v>563402</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -9179,7 +9190,7 @@
         <v>9910700</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -9190,7 +9201,7 @@
         <v>8476000</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -9201,7 +9212,7 @@
         <v>18269900</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -9212,7 +9223,7 @@
         <v>8921340</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -9223,7 +9234,7 @@
         <v>69037504</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -9234,7 +9245,7 @@
         <v>1296310</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -9245,7 +9256,7 @@
         <v>7797690</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -9256,7 +9267,7 @@
         <v>108020</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -9267,7 +9278,7 @@
         <v>1369120</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>11532100</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -9289,7 +9300,7 @@
         <v>80745000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -9300,7 +9311,7 @@
         <v>5758080</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -9311,7 +9322,7 @@
         <v>42863000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -9322,7 +9333,7 @@
         <v>44222896</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -9333,7 +9344,7 @@
         <v>9400140</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -9344,7 +9355,7 @@
         <v>66181600</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -9355,7 +9366,7 @@
         <v>57310000</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -9366,7 +9377,7 @@
         <v>324459008</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -9377,7 +9388,7 @@
         <v>31910600</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -9388,7 +9399,7 @@
         <v>95540800</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -9399,7 +9410,7 @@
         <v>7550260224</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -9410,7 +9421,7 @@
         <v>28250400</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -9421,7 +9432,7 @@
         <v>17094100</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -9458,15 +9469,15 @@
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -9476,7 +9487,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9490,7 +9501,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9504,7 +9515,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9518,7 +9529,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9529,7 +9540,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9540,7 +9551,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9551,7 +9562,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9562,7 +9573,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -9570,7 +9581,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -9578,7 +9589,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -9586,7 +9597,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -9594,7 +9605,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9602,7 +9613,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9610,7 +9621,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9618,7 +9629,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9637,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -9634,7 +9645,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -9642,7 +9653,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9650,7 +9661,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -9658,7 +9669,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -9666,7 +9677,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -9674,7 +9685,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +9693,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -9690,7 +9701,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9698,7 +9709,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -9706,7 +9717,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -9714,7 +9725,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -9722,7 +9733,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>158</v>
       </c>
@@ -9730,7 +9741,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -9738,7 +9749,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -9746,7 +9757,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -9754,7 +9765,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -9762,7 +9773,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -9770,7 +9781,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -9778,7 +9789,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -9786,7 +9797,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -9794,7 +9805,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -9802,7 +9813,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -9810,7 +9821,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -9818,7 +9829,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -9826,7 +9837,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -9834,7 +9845,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -9842,7 +9853,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -9850,7 +9861,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>36</v>
       </c>
@@ -9858,7 +9869,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -9866,7 +9877,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -9874,7 +9885,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -9882,7 +9893,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -9890,7 +9901,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -9898,7 +9909,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -9906,7 +9917,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -9914,7 +9925,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -9922,7 +9933,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -9930,7 +9941,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -9938,7 +9949,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -9946,7 +9957,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -9954,7 +9965,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -9962,7 +9973,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -9970,7 +9981,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -9978,7 +9989,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -9986,7 +9997,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -9994,7 +10005,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -10002,7 +10013,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -10010,7 +10021,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -10018,7 +10029,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -10026,7 +10037,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -10034,7 +10045,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -10042,7 +10053,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -10050,7 +10061,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -10066,7 +10077,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -10074,7 +10085,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -10082,7 +10093,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -10090,7 +10101,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -10098,7 +10109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -10106,7 +10117,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -10114,7 +10125,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -10122,7 +10133,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>70</v>
       </c>
@@ -10138,7 +10149,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -10146,7 +10157,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -10154,7 +10165,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -10162,7 +10173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -10170,7 +10181,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -10178,7 +10189,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -10186,7 +10197,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -10194,7 +10205,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
@@ -10202,7 +10213,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -10210,7 +10221,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -10218,7 +10229,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -10226,7 +10237,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -10234,7 +10245,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -10242,7 +10253,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -10250,7 +10261,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -10258,7 +10269,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10266,7 +10277,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -10274,7 +10285,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -10282,7 +10293,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>166</v>
       </c>
@@ -10290,7 +10301,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>91</v>
       </c>
@@ -10306,7 +10317,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -10314,7 +10325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -10322,7 +10333,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>94</v>
       </c>
@@ -10330,7 +10341,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10338,7 +10349,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -10346,7 +10357,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -10354,7 +10365,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>98</v>
       </c>
@@ -10362,7 +10373,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -10370,7 +10381,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>99</v>
       </c>
@@ -10378,7 +10389,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>100</v>
       </c>
@@ -10386,7 +10397,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>102</v>
       </c>
@@ -10394,7 +10405,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -10402,7 +10413,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -10410,7 +10421,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>106</v>
       </c>
@@ -10418,7 +10429,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>107</v>
       </c>
@@ -10426,7 +10437,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>108</v>
       </c>
@@ -10434,7 +10445,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -10450,7 +10461,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>150</v>
       </c>
@@ -10458,7 +10469,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>111</v>
       </c>
@@ -10466,7 +10477,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>112</v>
       </c>
@@ -10474,7 +10485,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>114</v>
       </c>
@@ -10482,7 +10493,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -10490,7 +10501,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -10498,7 +10509,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>117</v>
       </c>
@@ -10506,7 +10517,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>118</v>
       </c>
@@ -10514,7 +10525,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>119</v>
       </c>
@@ -10522,7 +10533,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>173</v>
       </c>
@@ -10538,7 +10549,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -10546,7 +10557,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>105</v>
       </c>
@@ -10554,7 +10565,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -10562,7 +10573,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -10570,7 +10581,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>126</v>
       </c>
@@ -10578,7 +10589,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -10586,7 +10597,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>129</v>
       </c>
@@ -10594,7 +10605,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -10602,7 +10613,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>130</v>
       </c>
@@ -10610,7 +10621,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -10618,7 +10629,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -10626,7 +10637,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -10634,7 +10645,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>133</v>
       </c>
@@ -10642,7 +10653,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -10650,7 +10661,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -10658,7 +10669,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -10666,7 +10677,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>21</v>
       </c>
@@ -10674,7 +10685,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>137</v>
       </c>
@@ -10682,7 +10693,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>138</v>
       </c>
@@ -10690,7 +10701,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>29</v>
       </c>
@@ -10698,7 +10709,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -10706,7 +10717,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>139</v>
       </c>
@@ -10714,7 +10725,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>142</v>
       </c>
@@ -10722,7 +10733,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>143</v>
       </c>
@@ -10730,7 +10741,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>144</v>
       </c>
@@ -10738,7 +10749,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>140</v>
       </c>
@@ -10746,7 +10757,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -10754,7 +10765,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -10762,7 +10773,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>147</v>
       </c>
@@ -10770,7 +10781,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -10778,7 +10789,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -10786,7 +10797,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>151</v>
       </c>
@@ -10794,7 +10805,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>152</v>
       </c>
@@ -10802,7 +10813,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -10810,7 +10821,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>154</v>
       </c>
@@ -10818,7 +10829,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>156</v>
       </c>
@@ -10826,7 +10837,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>153</v>
       </c>
@@ -10834,7 +10845,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -10842,7 +10853,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>174</v>
       </c>
@@ -10850,7 +10861,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>157</v>
       </c>
@@ -10858,7 +10869,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>159</v>
       </c>
@@ -10866,7 +10877,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>160</v>
       </c>
@@ -10874,7 +10885,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -10882,7 +10893,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>163</v>
       </c>
@@ -10890,7 +10901,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>164</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>124</v>
       </c>
@@ -10931,13 +10942,13 @@
       <selection activeCell="C76" sqref="C75:C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>177</v>
       </c>
@@ -10954,7 +10965,7 @@
       </c>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -10989,7 +11000,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -11022,7 +11033,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -11057,7 +11068,7 @@
         <v>44372</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -11092,7 +11103,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>204</v>
       </c>
@@ -11124,7 +11135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -11156,7 +11167,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -11188,7 +11199,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11223,7 +11234,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -11252,7 +11263,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -11281,7 +11292,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -11310,7 +11321,7 @@
         <v>15.41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -11339,7 +11350,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -11368,7 +11379,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -11397,7 +11408,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11426,7 +11437,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>208</v>
       </c>
@@ -11455,7 +11466,7 @@
         <v>17.62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -11513,7 +11524,7 @@
         <v>42.32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
@@ -11542,7 +11553,7 @@
         <v>13.32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -11571,7 +11582,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>165</v>
       </c>
@@ -11600,7 +11611,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>20</v>
       </c>
@@ -11629,7 +11640,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -11658,7 +11669,7 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -11687,7 +11698,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
@@ -11716,7 +11727,7 @@
         <v>55.34</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>175</v>
       </c>
@@ -11745,7 +11756,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -11774,7 +11785,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -11803,7 +11814,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>18</v>
       </c>
@@ -11832,7 +11843,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -11861,7 +11872,7 @@
         <v>23.91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>210</v>
       </c>
@@ -11890,7 +11901,7 @@
         <v>13.45</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>23</v>
       </c>
@@ -11919,7 +11930,7 @@
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
@@ -11948,7 +11959,7 @@
         <v>94.91</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>211</v>
       </c>
@@ -11977,7 +11988,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -12006,7 +12017,7 @@
         <v>63.82</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>216</v>
       </c>
@@ -12035,7 +12046,7 @@
         <v>89.53</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>81</v>
       </c>
@@ -12093,7 +12104,7 @@
         <v>74.38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
@@ -12122,7 +12133,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>26</v>
       </c>
@@ -12151,7 +12162,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>212</v>
       </c>
@@ -12180,7 +12191,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>28</v>
       </c>
@@ -12209,7 +12220,7 @@
         <v>136.02000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>30</v>
       </c>
@@ -12238,7 +12249,7 @@
         <v>124.01</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>31</v>
       </c>
@@ -12267,7 +12278,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>170</v>
       </c>
@@ -12296,7 +12307,7 @@
         <v>14.57</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>32</v>
       </c>
@@ -12325,7 +12336,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>33</v>
       </c>
@@ -12354,7 +12365,7 @@
         <v>86.98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>34</v>
       </c>
@@ -12383,7 +12394,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -12412,7 +12423,7 @@
         <v>21.38</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>35</v>
       </c>
@@ -12441,7 +12452,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
@@ -12470,7 +12481,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>36</v>
       </c>
@@ -12499,7 +12510,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>214</v>
       </c>
@@ -12528,7 +12539,7 @@
         <v>9.69</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>37</v>
       </c>
@@ -12557,7 +12568,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>215</v>
       </c>
@@ -12586,7 +12597,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>176</v>
       </c>
@@ -12615,7 +12626,7 @@
         <v>94.94</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>40</v>
       </c>
@@ -12644,7 +12655,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>52</v>
       </c>
@@ -12673,7 +12684,7 @@
         <v>70.349999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>41</v>
       </c>
@@ -12702,7 +12713,7 @@
         <v>14.07</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>42</v>
       </c>
@@ -12731,7 +12742,7 @@
         <v>29.09</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>44</v>
       </c>
@@ -12760,7 +12771,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>45</v>
       </c>
@@ -12789,7 +12800,7 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>46</v>
       </c>
@@ -12818,7 +12829,7 @@
         <v>15.34</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>47</v>
       </c>
@@ -12847,7 +12858,7 @@
         <v>97.36</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>122</v>
       </c>
@@ -12876,7 +12887,7 @@
         <v>66.67</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>48</v>
       </c>
@@ -12905,7 +12916,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -12934,7 +12945,7 @@
         <v>64.349999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>161</v>
       </c>
@@ -12963,7 +12974,7 @@
         <v>58.22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -12992,7 +13003,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>49</v>
       </c>
@@ -13021,7 +13032,7 @@
         <v>19.12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>50</v>
       </c>
@@ -13050,7 +13061,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>51</v>
       </c>
@@ -13079,7 +13090,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -13108,7 +13119,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -13137,7 +13148,7 @@
         <v>51.58</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>219</v>
       </c>
@@ -13166,7 +13177,7 @@
         <v>96.26</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>220</v>
       </c>
@@ -13195,7 +13206,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>53</v>
       </c>
@@ -13224,7 +13235,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>56</v>
       </c>
@@ -13253,7 +13264,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>58</v>
       </c>
@@ -13282,7 +13293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -13311,7 +13322,7 @@
         <v>7.71</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>59</v>
       </c>
@@ -13340,7 +13351,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -13369,7 +13380,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>60</v>
       </c>
@@ -13398,7 +13409,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -13427,7 +13438,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>61</v>
       </c>
@@ -13456,7 +13467,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>224</v>
       </c>
@@ -13485,7 +13496,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>62</v>
       </c>
@@ -13514,7 +13525,7 @@
         <v>86.57</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>120</v>
       </c>
@@ -13543,7 +13554,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>63</v>
       </c>
@@ -13572,7 +13583,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>64</v>
       </c>
@@ -13601,7 +13612,7 @@
         <v>65.19</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>65</v>
       </c>
@@ -13630,7 +13641,7 @@
         <v>18.64</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -13659,7 +13670,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>66</v>
       </c>
@@ -13688,7 +13699,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>226</v>
       </c>
@@ -13717,7 +13728,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>68</v>
       </c>
@@ -13746,7 +13757,7 @@
         <v>59.69</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>69</v>
       </c>
@@ -13775,7 +13786,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>70</v>
       </c>
@@ -13804,7 +13815,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>71</v>
       </c>
@@ -13833,7 +13844,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>172</v>
       </c>
@@ -13862,7 +13873,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>227</v>
       </c>
@@ -13891,7 +13902,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>72</v>
       </c>
@@ -13920,7 +13931,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>73</v>
       </c>
@@ -13949,7 +13960,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>76</v>
       </c>
@@ -13978,7 +13989,7 @@
         <v>14.86</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>77</v>
       </c>
@@ -14007,7 +14018,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -14036,7 +14047,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>78</v>
       </c>
@@ -14065,7 +14076,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>75</v>
       </c>
@@ -14094,7 +14105,7 @@
         <v>24.08</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>80</v>
       </c>
@@ -14123,7 +14134,7 @@
         <v>46.34</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -14152,7 +14163,7 @@
         <v>47.77</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -14181,7 +14192,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -14210,7 +14221,7 @@
         <v>47.31</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>82</v>
       </c>
@@ -14239,7 +14250,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>79</v>
       </c>
@@ -14268,7 +14279,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>232</v>
       </c>
@@ -14297,7 +14308,7 @@
         <v>73.41</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>83</v>
       </c>
@@ -14326,7 +14337,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>85</v>
       </c>
@@ -14355,7 +14366,7 @@
         <v>8.5299999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>86</v>
       </c>
@@ -14384,7 +14395,7 @@
         <v>78.62</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>87</v>
       </c>
@@ -14413,7 +14424,7 @@
         <v>70.290000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>233</v>
       </c>
@@ -14442,7 +14453,7 @@
         <v>17.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>234</v>
       </c>
@@ -14471,7 +14482,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>89</v>
       </c>
@@ -14500,7 +14511,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>166</v>
       </c>
@@ -14529,7 +14540,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -14558,7 +14569,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>90</v>
       </c>
@@ -14587,7 +14598,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>91</v>
       </c>
@@ -14616,7 +14627,7 @@
         <v>64.19</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>92</v>
       </c>
@@ -14645,7 +14656,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -14674,7 +14685,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>93</v>
       </c>
@@ -14703,7 +14714,7 @@
         <v>111.23</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>94</v>
       </c>
@@ -14732,7 +14743,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>237</v>
       </c>
@@ -14761,7 +14772,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>95</v>
       </c>
@@ -14790,7 +14801,7 @@
         <v>87.22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>96</v>
       </c>
@@ -14819,7 +14830,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>97</v>
       </c>
@@ -14848,7 +14859,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -14877,7 +14888,7 @@
         <v>30.19</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -14906,7 +14917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>98</v>
       </c>
@@ -14935,7 +14946,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>168</v>
       </c>
@@ -14964,7 +14975,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>240</v>
       </c>
@@ -14993,7 +15004,7 @@
         <v>13.93</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>99</v>
       </c>
@@ -15022,7 +15033,7 @@
         <v>24.49</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>100</v>
       </c>
@@ -15051,12 +15062,12 @@
         <v>108.89</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>102</v>
       </c>
@@ -15085,7 +15096,7 @@
         <v>52.82</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>241</v>
       </c>
@@ -15114,7 +15125,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>103</v>
       </c>
@@ -15143,7 +15154,7 @@
         <v>35.03</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>104</v>
       </c>
@@ -15172,7 +15183,7 @@
         <v>4.28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>242</v>
       </c>
@@ -15201,7 +15212,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>106</v>
       </c>
@@ -15230,7 +15241,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>107</v>
       </c>
@@ -15259,7 +15270,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>108</v>
       </c>
@@ -15288,7 +15299,7 @@
         <v>116.19</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>109</v>
       </c>
@@ -15317,7 +15328,7 @@
         <v>101.05</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>243</v>
       </c>
@@ -15346,7 +15357,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>110</v>
       </c>
@@ -15375,7 +15386,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>150</v>
       </c>
@@ -15404,7 +15415,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>111</v>
       </c>
@@ -15433,7 +15444,7 @@
         <v>77.87</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>244</v>
       </c>
@@ -15462,7 +15473,7 @@
         <v>15.17</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>112</v>
       </c>
@@ -15491,7 +15502,7 @@
         <v>16.309999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>114</v>
       </c>
@@ -15520,7 +15531,7 @@
         <v>55.97</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>115</v>
       </c>
@@ -15549,7 +15560,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>116</v>
       </c>
@@ -15578,7 +15589,7 @@
         <v>27.81</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>117</v>
       </c>
@@ -15607,7 +15618,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>118</v>
       </c>
@@ -15636,7 +15647,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>119</v>
       </c>
@@ -15665,7 +15676,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>245</v>
       </c>
@@ -15694,7 +15705,7 @@
         <v>7.09</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>123</v>
       </c>
@@ -15723,7 +15734,7 @@
         <v>10.31</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>173</v>
       </c>
@@ -15752,7 +15763,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>101</v>
       </c>
@@ -15781,7 +15792,7 @@
         <v>14.85</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>105</v>
       </c>
@@ -15810,7 +15821,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>125</v>
       </c>
@@ -15839,7 +15850,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>246</v>
       </c>
@@ -15868,7 +15879,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>126</v>
       </c>
@@ -15897,7 +15908,7 @@
         <v>39.75</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>247</v>
       </c>
@@ -15926,7 +15937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>248</v>
       </c>
@@ -15955,7 +15966,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>249</v>
       </c>
@@ -15984,7 +15995,7 @@
         <v>16.89</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>128</v>
       </c>
@@ -16013,7 +16024,7 @@
         <v>14.69</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>250</v>
       </c>
@@ -16042,7 +16053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>251</v>
       </c>
@@ -16071,7 +16082,7 @@
         <v>10.09</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>252</v>
       </c>
@@ -16100,7 +16111,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>162</v>
       </c>
@@ -16129,7 +16140,7 @@
         <v>25.12</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>253</v>
       </c>
@@ -16158,7 +16169,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>130</v>
       </c>
@@ -16187,7 +16198,7 @@
         <v>74.48</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>131</v>
       </c>
@@ -16216,7 +16227,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>132</v>
       </c>
@@ -16245,7 +16256,7 @@
         <v>92.76</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>167</v>
       </c>
@@ -16274,7 +16285,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>254</v>
       </c>
@@ -16303,7 +16314,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>133</v>
       </c>
@@ -16332,7 +16343,7 @@
         <v>108.68</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>136</v>
       </c>
@@ -16361,7 +16372,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>255</v>
       </c>
@@ -16390,7 +16401,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>135</v>
       </c>
@@ -16419,7 +16430,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>134</v>
       </c>
@@ -16448,7 +16459,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>21</v>
       </c>
@@ -16477,7 +16488,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>256</v>
       </c>
@@ -16506,7 +16517,7 @@
         <v>155.18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>137</v>
       </c>
@@ -16535,7 +16546,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>257</v>
       </c>
@@ -16564,7 +16575,7 @@
         <v>152.33000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>138</v>
       </c>
@@ -16593,7 +16604,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>29</v>
       </c>
@@ -16622,12 +16633,12 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>169</v>
       </c>
@@ -16656,7 +16667,7 @@
         <v>69.510000000000005</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>139</v>
       </c>
@@ -16685,7 +16696,7 @@
         <v>37.369999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>142</v>
       </c>
@@ -16714,7 +16725,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>143</v>
       </c>
@@ -16743,7 +16754,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>258</v>
       </c>
@@ -16772,7 +16783,7 @@
         <v>21.72</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>259</v>
       </c>
@@ -16801,7 +16812,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>140</v>
       </c>
@@ -16830,7 +16841,7 @@
         <v>50.77</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>146</v>
       </c>
@@ -16859,7 +16870,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>121</v>
       </c>
@@ -16888,7 +16899,7 @@
         <v>48.13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>147</v>
       </c>
@@ -16917,7 +16928,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>148</v>
       </c>
@@ -16946,7 +16957,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>149</v>
       </c>
@@ -16975,7 +16986,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>151</v>
       </c>
@@ -17004,7 +17015,7 @@
         <v>15.14</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>152</v>
       </c>
@@ -17033,7 +17044,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>145</v>
       </c>
@@ -17062,7 +17073,7 @@
         <v>51.73</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>260</v>
       </c>
@@ -17091,7 +17102,7 @@
         <v>14.11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>261</v>
       </c>
@@ -17120,7 +17131,7 @@
         <v>53.31</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>154</v>
       </c>
@@ -17149,7 +17160,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>156</v>
       </c>
@@ -17178,7 +17189,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>153</v>
       </c>
@@ -17207,7 +17218,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>155</v>
       </c>
@@ -17236,7 +17247,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>279</v>
       </c>
@@ -17265,7 +17276,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>262</v>
       </c>
@@ -17294,7 +17305,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -17323,7 +17334,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>159</v>
       </c>
@@ -17352,7 +17363,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>265</v>
       </c>
@@ -17381,7 +17392,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>266</v>
       </c>
@@ -17410,7 +17421,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>267</v>
       </c>
@@ -17439,7 +17450,7 @@
         <v>17.05</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>268</v>
       </c>
@@ -17468,7 +17479,7 @@
         <v>9.26</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>269</v>
       </c>
@@ -17497,7 +17508,7 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>270</v>
       </c>
@@ -17526,7 +17537,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -17555,7 +17566,7 @@
         <v>86.12</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>163</v>
       </c>
@@ -17584,7 +17595,7 @@
         <v>69.38</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>164</v>
       </c>
@@ -17613,7 +17624,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>124</v>
       </c>
@@ -17664,12 +17675,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>177</v>
       </c>
@@ -17679,7 +17690,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -17693,7 +17704,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1950</v>
       </c>
@@ -17707,7 +17718,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1951</v>
       </c>
@@ -17721,7 +17732,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1952</v>
       </c>
@@ -17732,7 +17743,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1953</v>
       </c>
@@ -17743,7 +17754,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1954</v>
       </c>
@@ -17754,7 +17765,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1955</v>
       </c>
@@ -17765,7 +17776,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1956</v>
       </c>
@@ -17773,7 +17784,7 @@
         <v>2822443000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1957</v>
       </c>
@@ -17781,7 +17792,7 @@
         <v>2873306000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1958</v>
       </c>
@@ -17789,7 +17800,7 @@
         <v>2925687000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1959</v>
       </c>
@@ -17797,7 +17808,7 @@
         <v>2979576000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1960</v>
       </c>
@@ -17805,7 +17816,7 @@
         <v>3034950000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1961</v>
       </c>
@@ -17813,7 +17824,7 @@
         <v>3091844000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1962</v>
       </c>
@@ -17821,7 +17832,7 @@
         <v>3150421000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1963</v>
       </c>
@@ -17829,7 +17840,7 @@
         <v>3211001000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1964</v>
       </c>
@@ -17837,7 +17848,7 @@
         <v>3273978000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1965</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>3339584000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1966</v>
       </c>
@@ -17853,7 +17864,7 @@
         <v>3407923000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1967</v>
       </c>
@@ -17861,7 +17872,7 @@
         <v>3478770000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1968</v>
       </c>
@@ -17869,7 +17880,7 @@
         <v>3551599000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1969</v>
       </c>
@@ -17877,7 +17888,7 @@
         <v>3625681000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1970</v>
       </c>
@@ -17885,7 +17896,7 @@
         <v>3700437000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1971</v>
       </c>
@@ -17893,7 +17904,7 @@
         <v>3775760000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1972</v>
       </c>
@@ -17901,7 +17912,7 @@
         <v>3851651000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1973</v>
       </c>
@@ -17909,7 +17920,7 @@
         <v>3927781000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1974</v>
       </c>
@@ -17917,7 +17928,7 @@
         <v>4003794000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1975</v>
       </c>
@@ -17925,7 +17936,7 @@
         <v>4079480000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1976</v>
       </c>
@@ -17933,7 +17944,7 @@
         <v>4154667000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1977</v>
       </c>
@@ -17941,7 +17952,7 @@
         <v>4229506000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1978</v>
       </c>
@@ -17949,7 +17960,7 @@
         <v>4304534000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1979</v>
       </c>
@@ -17957,7 +17968,7 @@
         <v>4380506000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1980</v>
       </c>
@@ -17965,7 +17976,7 @@
         <v>4458003000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1981</v>
       </c>
@@ -17973,7 +17984,7 @@
         <v>4536997000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1982</v>
       </c>
@@ -17981,7 +17992,7 @@
         <v>4617387000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1983</v>
       </c>
@@ -17989,7 +18000,7 @@
         <v>4699569000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1984</v>
       </c>
@@ -17997,7 +18008,7 @@
         <v>4784012000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1985</v>
       </c>
@@ -18005,7 +18016,7 @@
         <v>4870922000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1986</v>
       </c>
@@ -18013,7 +18024,7 @@
         <v>4960568000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1987</v>
       </c>
@@ -18021,7 +18032,7 @@
         <v>5052522000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1988</v>
       </c>
@@ -18029,7 +18040,7 @@
         <v>5145426000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1989</v>
       </c>
@@ -18037,7 +18048,7 @@
         <v>5237441000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1990</v>
       </c>
@@ -18045,7 +18056,7 @@
         <v>5327231000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1991</v>
       </c>
@@ -18053,7 +18064,7 @@
         <v>5414289000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1992</v>
       </c>
@@ -18061,7 +18072,7 @@
         <v>5498920000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1993</v>
       </c>
@@ -18069,7 +18080,7 @@
         <v>5581598000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1994</v>
       </c>
@@ -18077,7 +18088,7 @@
         <v>5663150000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1995</v>
       </c>
@@ -18085,7 +18096,7 @@
         <v>5744213000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1996</v>
       </c>
@@ -18093,7 +18104,7 @@
         <v>5824892000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1997</v>
       </c>
@@ -18101,7 +18112,7 @@
         <v>5905046000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1998</v>
       </c>
@@ -18109,7 +18120,7 @@
         <v>5984794000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1999</v>
       </c>
@@ -18117,7 +18128,7 @@
         <v>6064239000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -18125,7 +18136,7 @@
         <v>6143494000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -18133,7 +18144,7 @@
         <v>6222627000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -18141,7 +18152,7 @@
         <v>6301773000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -18149,7 +18160,7 @@
         <v>6381185000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -18157,7 +18168,7 @@
         <v>6461159000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -18165,7 +18176,7 @@
         <v>6541907000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -18173,7 +18184,7 @@
         <v>6623518000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2007</v>
       </c>
@@ -18181,7 +18192,7 @@
         <v>6705947000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2008</v>
       </c>
@@ -18189,7 +18200,7 @@
         <v>6789089000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2009</v>
       </c>
@@ -18197,7 +18208,7 @@
         <v>6872767000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -18205,7 +18216,7 @@
         <v>6956824000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -18213,7 +18224,7 @@
         <v>7041194000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -18221,7 +18232,7 @@
         <v>7125828000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -18229,7 +18240,7 @@
         <v>7210582000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -18237,7 +18248,7 @@
         <v>7295291000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -18245,7 +18256,7 @@
         <v>7379797000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -18253,7 +18264,7 @@
         <v>7464022000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -18261,7 +18272,7 @@
         <v>7547859000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -18269,7 +18280,7 @@
         <v>7631091000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -18277,7 +18288,7 @@
         <v>7713468000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -18285,7 +18296,7 @@
         <v>7794799000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -18293,7 +18304,7 @@
         <v>7874966000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -18301,7 +18312,7 @@
         <v>7953953000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -18309,7 +18320,7 @@
         <v>8031800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2024</v>
       </c>
@@ -18317,7 +18328,7 @@
         <v>8108605000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2025</v>
       </c>
@@ -18325,7 +18336,7 @@
         <v>8184437000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2026</v>
       </c>
@@ -18333,7 +18344,7 @@
         <v>8259277000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2027</v>
       </c>
@@ -18341,7 +18352,7 @@
         <v>8333078000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2028</v>
       </c>
@@ -18349,7 +18360,7 @@
         <v>8405863000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2029</v>
       </c>
@@ -18357,7 +18368,7 @@
         <v>8477661000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2030</v>
       </c>
@@ -18365,7 +18376,7 @@
         <v>8548487000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2031</v>
       </c>
@@ -18373,7 +18384,7 @@
         <v>8618349000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2032</v>
       </c>
@@ -18381,7 +18392,7 @@
         <v>8687228000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2033</v>
       </c>
@@ -18389,7 +18400,7 @@
         <v>8755084000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2034</v>
       </c>
@@ -18397,7 +18408,7 @@
         <v>8821863000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2035</v>
       </c>
@@ -18405,7 +18416,7 @@
         <v>8887524000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2036</v>
       </c>
@@ -18413,7 +18424,7 @@
         <v>8952049000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2037</v>
       </c>
@@ -18421,7 +18432,7 @@
         <v>9015438000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2038</v>
       </c>
@@ -18429,7 +18440,7 @@
         <v>9077694000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2039</v>
       </c>
@@ -18437,7 +18448,7 @@
         <v>9138829000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2040</v>
       </c>
@@ -18445,7 +18456,7 @@
         <v>9198847000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2041</v>
       </c>
@@ -18453,7 +18464,7 @@
         <v>9257745000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2042</v>
       </c>
@@ -18461,7 +18472,7 @@
         <v>9315508000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2043</v>
       </c>
@@ -18469,7 +18480,7 @@
         <v>9372118000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2044</v>
       </c>
@@ -18477,7 +18488,7 @@
         <v>9427555000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2045</v>
       </c>
@@ -18485,7 +18496,7 @@
         <v>9481803000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2046</v>
       </c>
@@ -18493,7 +18504,7 @@
         <v>9534855000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2047</v>
       </c>
@@ -18501,7 +18512,7 @@
         <v>9586708000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2048</v>
       </c>
@@ -18509,7 +18520,7 @@
         <v>9637357000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2049</v>
       </c>
@@ -18517,7 +18528,7 @@
         <v>9686800000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2050</v>
       </c>
@@ -18525,7 +18536,7 @@
         <v>9735034000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2051</v>
       </c>
@@ -18533,7 +18544,7 @@
         <v>9782062000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2052</v>
       </c>
@@ -18541,7 +18552,7 @@
         <v>9827885000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2053</v>
       </c>
@@ -18549,7 +18560,7 @@
         <v>9872502000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2054</v>
       </c>
@@ -18557,7 +18568,7 @@
         <v>9915905000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2055</v>
       </c>
@@ -18565,7 +18576,7 @@
         <v>9958099000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2056</v>
       </c>
@@ -18573,7 +18584,7 @@
         <v>9999085000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2057</v>
       </c>
@@ -18581,7 +18592,7 @@
         <v>10038881000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2058</v>
       </c>
@@ -18589,7 +18600,7 @@
         <v>10077518000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2059</v>
       </c>
@@ -18597,7 +18608,7 @@
         <v>10115036000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2060</v>
       </c>
@@ -18605,7 +18616,7 @@
         <v>10151470000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2061</v>
       </c>
@@ -18613,7 +18624,7 @@
         <v>10186837000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2062</v>
       </c>
@@ -18621,7 +18632,7 @@
         <v>10221149000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2063</v>
       </c>
@@ -18629,7 +18640,7 @@
         <v>10254419000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2064</v>
       </c>
@@ -18637,7 +18648,7 @@
         <v>10286658000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2065</v>
       </c>
@@ -18645,7 +18656,7 @@
         <v>10317879000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2066</v>
       </c>
@@ -18653,7 +18664,7 @@
         <v>10348098000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2067</v>
       </c>
@@ -18661,7 +18672,7 @@
         <v>10377331000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2068</v>
       </c>
@@ -18669,7 +18680,7 @@
         <v>10405591000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2069</v>
       </c>
@@ -18677,7 +18688,7 @@
         <v>10432889000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2070</v>
       </c>
@@ -18685,7 +18696,7 @@
         <v>10459240000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2071</v>
       </c>
@@ -18693,7 +18704,7 @@
         <v>10484655000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2072</v>
       </c>
@@ -18701,7 +18712,7 @@
         <v>10509150000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2073</v>
       </c>
@@ -18709,7 +18720,7 @@
         <v>10532743000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2074</v>
       </c>
@@ -18717,7 +18728,7 @@
         <v>10555450000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2075</v>
       </c>
@@ -18725,7 +18736,7 @@
         <v>10577288000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2076</v>
       </c>
@@ -18733,7 +18744,7 @@
         <v>10598274000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2077</v>
       </c>
@@ -18741,7 +18752,7 @@
         <v>10618421000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2078</v>
       </c>
@@ -18749,7 +18760,7 @@
         <v>10637737000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2079</v>
       </c>
@@ -18757,7 +18768,7 @@
         <v>10656228000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2080</v>
       </c>
@@ -18765,7 +18776,7 @@
         <v>10673904000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2081</v>
       </c>
@@ -18773,7 +18784,7 @@
         <v>10690773000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2082</v>
       </c>
@@ -18781,7 +18792,7 @@
         <v>10706852000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2083</v>
       </c>
@@ -18789,7 +18800,7 @@
         <v>10722171000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2084</v>
       </c>
@@ -18797,7 +18808,7 @@
         <v>10736765000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2085</v>
       </c>
@@ -18805,7 +18816,7 @@
         <v>10750662000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2086</v>
       </c>
@@ -18813,7 +18824,7 @@
         <v>10763874000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2087</v>
       </c>
@@ -18821,7 +18832,7 @@
         <v>10776402000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2088</v>
       </c>
@@ -18829,7 +18840,7 @@
         <v>10788249000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2089</v>
       </c>
@@ -18837,7 +18848,7 @@
         <v>10799413000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2090</v>
       </c>
@@ -18845,7 +18856,7 @@
         <v>10809892000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2091</v>
       </c>
@@ -18853,7 +18864,7 @@
         <v>10819683000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2092</v>
       </c>
@@ -18861,7 +18872,7 @@
         <v>10828781000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2093</v>
       </c>
@@ -18869,7 +18880,7 @@
         <v>10837182000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2094</v>
       </c>
@@ -18877,7 +18888,7 @@
         <v>10844879000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2095</v>
       </c>
@@ -18885,7 +18896,7 @@
         <v>10851860000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2096</v>
       </c>
@@ -18893,7 +18904,7 @@
         <v>10858112000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2097</v>
       </c>
@@ -18901,7 +18912,7 @@
         <v>10863615000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2098</v>
       </c>
@@ -18909,7 +18920,7 @@
         <v>10868348000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2099</v>
       </c>
@@ -18917,7 +18928,7 @@
         <v>10872284000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2100</v>
       </c>
@@ -18938,6 +18949,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C42B8D7286C2C84C98942B3B2D5BAAB7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c84fc5764ca1105beab9a114183f636d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="af41d707-9994-4d63-93dc-323777c46aed" xmlns:ns4="75e9a809-be29-4265-ba67-bc5a84a21df3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0120fba51019f416be450d245621c425" ns3:_="" ns4:_="">
     <xsd:import namespace="af41d707-9994-4d63-93dc-323777c46aed"/>
@@ -19134,22 +19160,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="af41d707-9994-4d63-93dc-323777c46aed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="75e9a809-be29-4265-ba67-bc5a84a21df3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77A472C-86A4-4821-B565-2134CC034AEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19166,29 +19202,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59FC36E3-E546-4211-B02B-0C4FE9D3C29C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCFA7E00-BBB7-434F-BEFF-69B75B5532C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="af41d707-9994-4d63-93dc-323777c46aed"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="75e9a809-be29-4265-ba67-bc5a84a21df3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>